--- a/Business - Technology Services/ZETA.xlsx
+++ b/Business - Technology Services/ZETA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693A2B8-43D6-42FB-AF5F-70D065C48A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E6E8C-2B7A-493D-8226-5031EF88C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$24:$Y$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$25:$Y$25</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$2:$Y$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$2:$Y$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$J$5:$Y$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$J$6:$Y$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$5:$Y$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$6:$Y$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$24</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$24:$Y$24</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$J$25:$Y$25</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$J$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1729,7 +1729,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1882,6 +1882,17 @@
     <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1938,27 +1949,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2797,6 +2787,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1FCB-48F6-A71C-1DD765A3A244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2813,6 +2808,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1FCB-48F6-A71C-1DD765A3A244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6856,18 +6856,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6911,7 +6911,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp. (non gaap)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6931,7 +6931,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6962,18 +6962,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7017,7 +7017,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7037,7 +7037,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13353,7 +13353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -13772,11 +13772,11 @@
       <c r="E17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="126" t="s">
+      <c r="L17" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -13786,9 +13786,9 @@
         <f>C14/(C16*100)</f>
         <v>1.2674362994683679E-3</v>
       </c>
-      <c r="L18" s="129"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="131"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13798,9 +13798,9 @@
         <f>C15/(C17*100)</f>
         <v>1.9612500000000002</v>
       </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="131"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -13810,9 +13810,9 @@
         <f>Model!F6/Model!E5-1</f>
         <v>0.28247633188468058</v>
       </c>
-      <c r="L20" s="129"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="131"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13822,18 +13822,18 @@
         <f>Model!G6/Model!F6-1</f>
         <v>0.16631177974897549</v>
       </c>
-      <c r="L21" s="129"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="131"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="131"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13843,9 +13843,9 @@
         <f>Model!D8</f>
         <v>213.61500000000001</v>
       </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="131"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13855,9 +13855,9 @@
         <f>Model!E27</f>
         <v>0.62333836039208301</v>
       </c>
-      <c r="L24" s="129"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="131"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13867,9 +13867,9 @@
         <f>Model!E28</f>
         <v>-0.25722531057754483</v>
       </c>
-      <c r="L25" s="129"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="131"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13879,9 +13879,9 @@
         <f>C12/C23</f>
         <v>23.157589705966341</v>
       </c>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="131"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -13894,9 +13894,9 @@
       <c r="E27" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="131"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -13905,9 +13905,9 @@
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="132"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="134"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -13983,142 +13983,142 @@
       <c r="I41" s="59"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="161" t="s">
+      <c r="E44" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="F44" s="160" t="s">
+      <c r="F44" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="G44" s="160" t="s">
+      <c r="G44" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="H44" s="160">
+      <c r="H44" s="131">
         <v>63.508000000000003</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="161" t="s">
+      <c r="E45" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="F45" s="160" t="s">
+      <c r="F45" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="G45" s="160" t="s">
+      <c r="G45" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="H45" s="160" t="s">
+      <c r="H45" s="131" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="161" t="s">
+      <c r="E46" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="160" t="s">
+      <c r="F46" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="G46" s="160" t="s">
+      <c r="G46" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="H46" s="160" t="s">
+      <c r="H46" s="131" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="161" t="s">
+      <c r="E47" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="160" t="s">
+      <c r="F47" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="160" t="s">
+      <c r="G47" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="H47" s="160">
+      <c r="H47" s="131">
         <v>21.241</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="161" t="s">
+      <c r="E48" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="F48" s="160" t="s">
+      <c r="F48" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="G48" s="160" t="s">
+      <c r="G48" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="H48" s="160">
+      <c r="H48" s="131">
         <v>921.92100000000005</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" s="161" t="s">
+      <c r="E49" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="F49" s="160" t="s">
+      <c r="F49" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="G49" s="160" t="s">
+      <c r="G49" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="H49" s="160">
+      <c r="H49" s="131">
         <v>60.933</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E50" s="161" t="s">
+      <c r="E50" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="F50" s="160" t="s">
+      <c r="F50" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="G50" s="160" t="s">
+      <c r="G50" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="H50" s="160">
+      <c r="H50" s="131">
         <v>168.178</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E51" s="161" t="s">
+      <c r="E51" s="132" t="s">
         <v>213</v>
       </c>
-      <c r="F51" s="160" t="s">
+      <c r="F51" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="G51" s="160" t="s">
+      <c r="G51" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="H51" s="160" t="s">
+      <c r="H51" s="131" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E52" s="161" t="s">
+      <c r="E52" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="160" t="s">
+      <c r="F52" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="G52" s="160" t="s">
+      <c r="G52" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="H52" s="160">
+      <c r="H52" s="131">
         <v>60.933</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E53" s="161" t="s">
+      <c r="E53" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="F53" s="160" t="s">
+      <c r="F53" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="G53" s="160" t="s">
+      <c r="G53" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="H53" s="160" t="s">
+      <c r="H53" s="131" t="s">
         <v>161</v>
       </c>
     </row>
@@ -14147,8 +14147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
@@ -14236,45 +14236,45 @@
       <c r="B3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="146">
+      <c r="C3" s="126">
         <v>428.94099999999997</v>
       </c>
-      <c r="D3" s="146">
+      <c r="D3" s="126">
         <v>566.69399999999996</v>
       </c>
-      <c r="E3" s="147">
+      <c r="E3" s="127">
         <v>700.06</v>
       </c>
-      <c r="N3" s="146">
+      <c r="N3" s="126">
         <v>119.988</v>
       </c>
-      <c r="O3" s="146">
+      <c r="O3" s="126">
         <v>131.94200000000001</v>
       </c>
-      <c r="P3" s="146">
+      <c r="P3" s="126">
         <v>146.488</v>
       </c>
-      <c r="Q3" s="146">
+      <c r="Q3" s="126">
         <f>D3-P3-O3-N3</f>
         <v>168.27599999999995</v>
       </c>
-      <c r="R3" s="146">
+      <c r="R3" s="126">
         <v>150.40600000000001</v>
       </c>
-      <c r="S3" s="146">
+      <c r="S3" s="126">
         <v>163.91399999999999</v>
       </c>
-      <c r="T3" s="146">
+      <c r="T3" s="126">
         <v>182.23099999999999</v>
       </c>
-      <c r="U3" s="146">
+      <c r="U3" s="126">
         <f>E3-T3-S3-R3</f>
         <v>203.50899999999996</v>
       </c>
-      <c r="V3" s="146">
+      <c r="V3" s="126">
         <v>188.178</v>
       </c>
-      <c r="W3" s="147">
+      <c r="W3" s="127">
         <v>222.15600000000001</v>
       </c>
     </row>
@@ -14282,45 +14282,45 @@
       <c r="B4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="146">
+      <c r="C4" s="126">
         <v>29.396999999999998</v>
       </c>
-      <c r="D4" s="146">
+      <c r="D4" s="126">
         <v>24.266999999999999</v>
       </c>
-      <c r="E4" s="147">
+      <c r="E4" s="127">
         <v>28.663</v>
       </c>
-      <c r="N4" s="146">
+      <c r="N4" s="126">
         <v>6.28</v>
       </c>
-      <c r="O4" s="146">
+      <c r="O4" s="126">
         <v>5.359</v>
       </c>
-      <c r="P4" s="146">
+      <c r="P4" s="126">
         <v>5.7640000000000002</v>
       </c>
-      <c r="Q4" s="146">
+      <c r="Q4" s="126">
         <f>D4-P4-O4-N4</f>
         <v>6.8639999999999999</v>
       </c>
-      <c r="R4" s="146">
+      <c r="R4" s="126">
         <v>7.1959999999999997</v>
       </c>
-      <c r="S4" s="146">
+      <c r="S4" s="126">
         <v>7.9029999999999996</v>
       </c>
-      <c r="T4" s="146">
+      <c r="T4" s="126">
         <v>6.7530000000000001</v>
       </c>
-      <c r="U4" s="146">
+      <c r="U4" s="126">
         <f>E4-T4-S4-R4</f>
         <v>6.8110000000000017</v>
       </c>
-      <c r="V4" s="146">
+      <c r="V4" s="126">
         <v>6.7690000000000001</v>
       </c>
-      <c r="W4" s="147">
+      <c r="W4" s="127">
         <v>5.6829999999999998</v>
       </c>
     </row>
@@ -14343,67 +14343,67 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="J5" s="11">
-        <f>SUM(J3:J4)</f>
+        <f t="shared" ref="J5:Y5" si="0">SUM(J3:J4)</f>
         <v>0</v>
       </c>
       <c r="K5" s="11">
-        <f>SUM(K3:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="11">
-        <f>SUM(L3:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="11">
-        <f>SUM(M3:M4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="11">
-        <f>SUM(N3:N4)</f>
+        <f t="shared" si="0"/>
         <v>126.268</v>
       </c>
       <c r="O5" s="11">
-        <f>SUM(O3:O4)</f>
+        <f t="shared" si="0"/>
         <v>137.30100000000002</v>
       </c>
       <c r="P5" s="11">
-        <f>SUM(P3:P4)</f>
+        <f t="shared" si="0"/>
         <v>152.25200000000001</v>
       </c>
       <c r="Q5" s="11">
-        <f>SUM(Q3:Q4)</f>
+        <f t="shared" si="0"/>
         <v>175.13999999999996</v>
       </c>
       <c r="R5" s="11">
-        <f>SUM(R3:R4)</f>
+        <f t="shared" si="0"/>
         <v>157.602</v>
       </c>
       <c r="S5" s="11">
-        <f>SUM(S3:S4)</f>
+        <f t="shared" si="0"/>
         <v>171.81699999999998</v>
       </c>
       <c r="T5" s="11">
-        <f>SUM(T3:T4)</f>
+        <f t="shared" si="0"/>
         <v>188.98399999999998</v>
       </c>
       <c r="U5" s="11">
-        <f>SUM(U3:U4)</f>
+        <f t="shared" si="0"/>
         <v>210.31999999999996</v>
       </c>
       <c r="V5" s="11">
-        <f>SUM(V3:V4)</f>
+        <f t="shared" si="0"/>
         <v>194.947</v>
       </c>
       <c r="W5" s="14">
-        <f>SUM(W3:W4)</f>
+        <f t="shared" si="0"/>
         <v>227.839</v>
       </c>
       <c r="X5" s="11">
-        <f>SUM(X3:X4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y5" s="11">
-        <f>SUM(Y3:Y4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14469,8 +14469,8 @@
       <c r="P7" s="11">
         <v>57.529000000000003</v>
       </c>
-      <c r="Q7" s="146">
-        <f t="shared" ref="Q7:Q13" si="0">D7-P7-O7-N7</f>
+      <c r="Q7" s="126">
+        <f t="shared" ref="Q7:Q13" si="1">D7-P7-O7-N7</f>
         <v>65.979000000000013</v>
       </c>
       <c r="R7" s="11">
@@ -14482,8 +14482,8 @@
       <c r="T7" s="11">
         <v>73.48</v>
       </c>
-      <c r="U7" s="146">
-        <f t="shared" ref="U7:U13" si="1">E7-T7-S7-R7</f>
+      <c r="U7" s="126">
+        <f t="shared" ref="U7:U13" si="2">E7-T7-S7-R7</f>
         <v>84.615000000000009</v>
       </c>
       <c r="V7" s="11">
@@ -14523,8 +14523,8 @@
       <c r="P8" s="10">
         <v>53.584000000000003</v>
       </c>
-      <c r="Q8" s="146">
-        <f t="shared" si="0"/>
+      <c r="Q8" s="126">
+        <f t="shared" si="1"/>
         <v>51.017000000000017</v>
       </c>
       <c r="R8" s="10">
@@ -14536,8 +14536,8 @@
       <c r="T8" s="10">
         <v>50.706000000000003</v>
       </c>
-      <c r="U8" s="146">
-        <f t="shared" si="1"/>
+      <c r="U8" s="126">
+        <f t="shared" si="2"/>
         <v>51.39700000000002</v>
       </c>
       <c r="V8" s="10">
@@ -14577,8 +14577,8 @@
       <c r="P9" s="10">
         <v>76.986999999999995</v>
       </c>
-      <c r="Q9" s="146">
-        <f t="shared" si="0"/>
+      <c r="Q9" s="126">
+        <f t="shared" si="1"/>
         <v>76.194000000000017</v>
       </c>
       <c r="R9" s="10">
@@ -14590,8 +14590,8 @@
       <c r="T9" s="10">
         <v>70.668999999999997</v>
       </c>
-      <c r="U9" s="146">
-        <f t="shared" si="1"/>
+      <c r="U9" s="126">
+        <f t="shared" si="2"/>
         <v>72.727000000000004</v>
       </c>
       <c r="V9" s="10">
@@ -14631,8 +14631,8 @@
       <c r="P10" s="10">
         <v>16.954000000000001</v>
       </c>
-      <c r="Q10" s="146">
-        <f t="shared" si="0"/>
+      <c r="Q10" s="126">
+        <f t="shared" si="1"/>
         <v>17.230999999999987</v>
       </c>
       <c r="R10" s="10">
@@ -14644,8 +14644,8 @@
       <c r="T10" s="10">
         <v>18.062000000000001</v>
       </c>
-      <c r="U10" s="146">
-        <f t="shared" si="1"/>
+      <c r="U10" s="126">
+        <f t="shared" si="2"/>
         <v>19.945</v>
       </c>
       <c r="V10" s="10">
@@ -14685,8 +14685,8 @@
       <c r="P11" s="10">
         <v>13.367000000000001</v>
       </c>
-      <c r="Q11" s="146">
-        <f t="shared" si="0"/>
+      <c r="Q11" s="126">
+        <f t="shared" si="1"/>
         <v>12.429999999999998</v>
       </c>
       <c r="R11" s="10">
@@ -14698,8 +14698,8 @@
       <c r="T11" s="10">
         <v>13.367000000000001</v>
       </c>
-      <c r="U11" s="146">
-        <f t="shared" si="1"/>
+      <c r="U11" s="126">
+        <f t="shared" si="2"/>
         <v>13.360999999999997</v>
       </c>
       <c r="V11" s="10">
@@ -14735,8 +14735,8 @@
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="146">
-        <f t="shared" si="0"/>
+      <c r="Q12" s="126">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="10">
@@ -14744,8 +14744,8 @@
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="146">
-        <f t="shared" si="1"/>
+      <c r="U12" s="126">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12" s="10"/>
@@ -14775,8 +14775,8 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="146">
-        <f t="shared" si="0"/>
+      <c r="Q13" s="126">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R13" s="10"/>
@@ -14784,8 +14784,8 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="T13" s="10"/>
-      <c r="U13" s="146">
-        <f t="shared" si="1"/>
+      <c r="U13" s="126">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13" s="10"/>
@@ -14820,67 +14820,67 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11">
-        <f>J5-SUM(J7:J13)</f>
+        <f t="shared" ref="J14:Y14" si="3">J5-SUM(J7:J13)</f>
         <v>0</v>
       </c>
       <c r="K14" s="11">
-        <f>K5-SUM(K7:K13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14" s="11">
-        <f>L5-SUM(L7:L13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>M5-SUM(M7:M13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <f>N5-SUM(N7:N13)</f>
+        <f t="shared" si="3"/>
         <v>-68.064999999999998</v>
       </c>
       <c r="O14" s="11">
-        <f>O5-SUM(O7:O13)</f>
+        <f t="shared" si="3"/>
         <v>-77.08899999999997</v>
       </c>
       <c r="P14" s="11">
-        <f>P5-SUM(P7:P13)</f>
+        <f t="shared" si="3"/>
         <v>-66.168999999999983</v>
       </c>
       <c r="Q14" s="11">
-        <f>Q5-SUM(Q7:Q13)</f>
+        <f t="shared" si="3"/>
         <v>-47.711000000000098</v>
       </c>
       <c r="R14" s="11">
-        <f>R5-SUM(R7:R13)</f>
+        <f t="shared" si="3"/>
         <v>-52.444999999999993</v>
       </c>
       <c r="S14" s="11">
-        <f>S5-SUM(S7:S13)</f>
+        <f t="shared" si="3"/>
         <v>-46.215000000000003</v>
       </c>
       <c r="T14" s="11">
-        <f>T5-SUM(T7:T13)</f>
+        <f t="shared" si="3"/>
         <v>-37.30000000000004</v>
       </c>
       <c r="U14" s="11">
-        <f>U5-SUM(U7:U13)</f>
+        <f t="shared" si="3"/>
         <v>-31.725000000000051</v>
       </c>
       <c r="V14" s="11">
-        <f>V5-SUM(V7:V13)</f>
+        <f t="shared" si="3"/>
         <v>-35.873999999999967</v>
       </c>
       <c r="W14" s="14">
-        <f>W5-SUM(W7:W13)</f>
+        <f t="shared" si="3"/>
         <v>-26.583999999999975</v>
       </c>
       <c r="X14" s="11">
-        <f>X5-SUM(X7:X13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14" s="11">
-        <f>Y5-SUM(Y7:Y13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14912,8 +14912,8 @@
       <c r="P15" s="10">
         <v>2.0379999999999998</v>
       </c>
-      <c r="Q15" s="146">
-        <f t="shared" ref="Q15:Q16" si="2">D15-P15-O15-N15</f>
+      <c r="Q15" s="126">
+        <f t="shared" ref="Q15:Q16" si="4">D15-P15-O15-N15</f>
         <v>2.3010000000000006</v>
       </c>
       <c r="R15" s="10">
@@ -14925,8 +14925,8 @@
       <c r="T15" s="10">
         <v>2.8940000000000001</v>
       </c>
-      <c r="U15" s="146">
-        <f t="shared" ref="U15:U16" si="3">E15-T15-S15-R15</f>
+      <c r="U15" s="126">
+        <f t="shared" ref="U15:U16" si="5">E15-T15-S15-R15</f>
         <v>2.7999999999999994</v>
       </c>
       <c r="V15" s="10">
@@ -14970,8 +14970,8 @@
         <f>1.142-0.805</f>
         <v>0.33699999999999986</v>
       </c>
-      <c r="Q16" s="146">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="126">
+        <f t="shared" si="4"/>
         <v>1.8720000000000017</v>
       </c>
       <c r="R16" s="10">
@@ -14983,8 +14983,8 @@
       <c r="T16" s="10">
         <v>2.4359999999999999</v>
       </c>
-      <c r="U16" s="146">
-        <f t="shared" si="3"/>
+      <c r="U16" s="126">
+        <f t="shared" si="5"/>
         <v>0.68200000000000016</v>
       </c>
       <c r="V16" s="10">
@@ -15000,88 +15000,88 @@
       <c r="B17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="145">
-        <f t="shared" ref="C17:D17" si="4">C14-SUM(C15:C16)</f>
+      <c r="C17" s="11">
+        <f t="shared" ref="C17:D17" si="6">C14-SUM(C15:C16)</f>
         <v>-250.16100000000003</v>
       </c>
-      <c r="D17" s="145">
-        <f t="shared" si="4"/>
+      <c r="D17" s="11">
+        <f t="shared" si="6"/>
         <v>-280.73</v>
       </c>
       <c r="E17" s="14">
         <f>E14-SUM(E15:E16)</f>
         <v>-186.44400000000019</v>
       </c>
-      <c r="F17" s="145">
-        <f t="shared" ref="F17:G17" si="5">F14-SUM(F15:F16)</f>
+      <c r="F17" s="11">
+        <f t="shared" ref="F17:G17" si="7">F14-SUM(F15:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="145">
-        <f t="shared" si="5"/>
+      <c r="G17" s="11">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J17" s="145">
-        <f t="shared" ref="J17" si="6">J14-SUM(J15:J16)</f>
+      <c r="J17" s="11">
+        <f t="shared" ref="J17" si="8">J14-SUM(J15:J16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="145">
-        <f t="shared" ref="K17" si="7">K14-SUM(K15:K16)</f>
+      <c r="K17" s="11">
+        <f t="shared" ref="K17" si="9">K14-SUM(K15:K16)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="145">
-        <f t="shared" ref="L17" si="8">L14-SUM(L15:L16)</f>
+      <c r="L17" s="11">
+        <f t="shared" ref="L17" si="10">L14-SUM(L15:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="145">
-        <f t="shared" ref="M17" si="9">M14-SUM(M15:M16)</f>
+      <c r="M17" s="11">
+        <f t="shared" ref="M17" si="11">M14-SUM(M15:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="145">
-        <f t="shared" ref="N17" si="10">N14-SUM(N15:N16)</f>
+      <c r="N17" s="11">
+        <f t="shared" ref="N17" si="12">N14-SUM(N15:N16)</f>
         <v>-74.635999999999996</v>
       </c>
-      <c r="O17" s="145">
-        <f t="shared" ref="O17" si="11">O14-SUM(O15:O16)</f>
+      <c r="O17" s="11">
+        <f t="shared" ref="O17" si="13">O14-SUM(O15:O16)</f>
         <v>-85.665999999999968</v>
       </c>
-      <c r="P17" s="145">
-        <f t="shared" ref="P17" si="12">P14-SUM(P15:P16)</f>
+      <c r="P17" s="11">
+        <f t="shared" ref="P17" si="14">P14-SUM(P15:P16)</f>
         <v>-68.543999999999983</v>
       </c>
-      <c r="Q17" s="145">
-        <f t="shared" ref="Q17" si="13">Q14-SUM(Q15:Q16)</f>
+      <c r="Q17" s="11">
+        <f t="shared" ref="Q17" si="15">Q14-SUM(Q15:Q16)</f>
         <v>-51.8840000000001</v>
       </c>
-      <c r="R17" s="145">
-        <f t="shared" ref="R17" si="14">R14-SUM(R15:R16)</f>
+      <c r="R17" s="11">
+        <f t="shared" ref="R17" si="16">R14-SUM(R15:R16)</f>
         <v>-56.756999999999991</v>
       </c>
-      <c r="S17" s="145">
-        <f t="shared" ref="S17" si="15">S14-SUM(S15:S16)</f>
+      <c r="S17" s="11">
+        <f t="shared" ref="S17" si="17">S14-SUM(S15:S16)</f>
         <v>-51.85</v>
       </c>
-      <c r="T17" s="145">
-        <f t="shared" ref="T17" si="16">T14-SUM(T15:T16)</f>
+      <c r="T17" s="11">
+        <f t="shared" ref="T17" si="18">T14-SUM(T15:T16)</f>
         <v>-42.630000000000038</v>
       </c>
-      <c r="U17" s="145">
-        <f t="shared" ref="U17" si="17">U14-SUM(U15:U16)</f>
+      <c r="U17" s="11">
+        <f t="shared" ref="U17" si="19">U14-SUM(U15:U16)</f>
         <v>-35.20700000000005</v>
       </c>
-      <c r="V17" s="145">
-        <f t="shared" ref="V17" si="18">V14-SUM(V15:V16)</f>
+      <c r="V17" s="11">
+        <f t="shared" ref="V17" si="20">V14-SUM(V15:V16)</f>
         <v>-39.169999999999966</v>
       </c>
-      <c r="W17" s="145">
-        <f t="shared" ref="W17" si="19">W14-SUM(W15:W16)</f>
+      <c r="W17" s="11">
+        <f t="shared" ref="W17" si="21">W14-SUM(W15:W16)</f>
         <v>-27.579999999999973</v>
       </c>
-      <c r="X17" s="145">
-        <f t="shared" ref="X17" si="20">X14-SUM(X15:X16)</f>
+      <c r="X17" s="11">
+        <f t="shared" ref="X17" si="22">X14-SUM(X15:X16)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="145">
-        <f t="shared" ref="Y17" si="21">Y14-SUM(Y15:Y16)</f>
+      <c r="Y17" s="11">
+        <f t="shared" ref="Y17" si="23">Y14-SUM(Y15:Y16)</f>
         <v>0</v>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
       <c r="P18" s="10">
         <v>0.89600000000000002</v>
       </c>
-      <c r="Q18" s="146">
+      <c r="Q18" s="126">
         <f>D18-P18-O18-N18</f>
         <v>-0.13099999999999978</v>
       </c>
@@ -15126,8 +15126,8 @@
       <c r="T18" s="10">
         <v>0.59</v>
       </c>
-      <c r="U18" s="146">
-        <f t="shared" ref="U18:U19" si="22">E18-T18-S18-R18</f>
+      <c r="U18" s="126">
+        <f t="shared" ref="U18:U19" si="24">E18-T18-S18-R18</f>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="V18" s="10">
@@ -15167,7 +15167,7 @@
       <c r="P19" s="10">
         <v>0.77400000000000002</v>
       </c>
-      <c r="Q19" s="146">
+      <c r="Q19" s="126">
         <f>D19-P19-O19-N19</f>
         <v>-1.4770000000000001</v>
       </c>
@@ -15180,8 +15180,8 @@
       <c r="T19" s="10">
         <v>0.28299999999999997</v>
       </c>
-      <c r="U19" s="146">
-        <f t="shared" si="22"/>
+      <c r="U19" s="126">
+        <f t="shared" si="24"/>
         <v>-0.11299999999999996</v>
       </c>
       <c r="V19" s="10">
@@ -15198,209 +15198,209 @@
         <v>20</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:E20" si="23">C17-SUM(C18:C19)</f>
+        <f t="shared" ref="C20:E20" si="25">C17-SUM(C18:C19)</f>
         <v>-249.62700000000004</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-279.18299999999999</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-187.4460000000002</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="J20" s="11">
-        <f t="shared" ref="J20" si="24">J17-SUM(J18:J19)</f>
+        <f t="shared" ref="J20" si="26">J17-SUM(J18:J19)</f>
         <v>0</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" ref="K20" si="25">K17-SUM(K18:K19)</f>
+        <f t="shared" ref="K20" si="27">K17-SUM(K18:K19)</f>
         <v>0</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" ref="L20" si="26">L17-SUM(L18:L19)</f>
+        <f t="shared" ref="L20" si="28">L17-SUM(L18:L19)</f>
         <v>0</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" ref="M20" si="27">M17-SUM(M18:M19)</f>
+        <f t="shared" ref="M20" si="29">M17-SUM(M18:M19)</f>
         <v>0</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" ref="N20" si="28">N17-SUM(N18:N19)</f>
+        <f t="shared" ref="N20" si="30">N17-SUM(N18:N19)</f>
         <v>-72.280999999999992</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" ref="O20" si="29">O17-SUM(O18:O19)</f>
+        <f t="shared" ref="O20" si="31">O17-SUM(O18:O19)</f>
         <v>-86.411999999999964</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" ref="P20" si="30">P17-SUM(P18:P19)</f>
+        <f t="shared" ref="P20" si="32">P17-SUM(P18:P19)</f>
         <v>-70.213999999999984</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" ref="Q20" si="31">Q17-SUM(Q18:Q19)</f>
+        <f t="shared" ref="Q20" si="33">Q17-SUM(Q18:Q19)</f>
         <v>-50.276000000000103</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" ref="R20" si="32">R17-SUM(R18:R19)</f>
+        <f t="shared" ref="R20" si="34">R17-SUM(R18:R19)</f>
         <v>-56.807999999999993</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" ref="S20" si="33">S17-SUM(S18:S19)</f>
+        <f t="shared" ref="S20" si="35">S17-SUM(S18:S19)</f>
         <v>-52.100999999999999</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" ref="T20:Y20" si="34">T17-SUM(T18:T19)</f>
+        <f t="shared" ref="T20:Y20" si="36">T17-SUM(T18:T19)</f>
         <v>-43.503000000000036</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-35.034000000000049</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-39.615999999999964</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-28.014999999999972</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y20" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:25" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="150" t="s">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="151">
+      <c r="C21" s="10">
         <v>26.832999999999998</v>
       </c>
-      <c r="D21" s="151">
+      <c r="D21" s="10">
         <v>298.99200000000002</v>
       </c>
-      <c r="E21" s="152">
+      <c r="E21" s="15">
         <v>242.881</v>
       </c>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10">
         <v>73.736000000000004</v>
       </c>
-      <c r="O21" s="151">
+      <c r="O21" s="10">
         <v>82.334999999999994</v>
       </c>
-      <c r="P21" s="151">
+      <c r="P21" s="10">
         <v>75.218000000000004</v>
       </c>
-      <c r="Q21" s="146">
+      <c r="Q21" s="126">
         <f>D21-P21-O21-N21</f>
         <v>67.703000000000017</v>
       </c>
-      <c r="R21" s="151">
+      <c r="R21" s="10">
         <v>64.462000000000003</v>
       </c>
-      <c r="S21" s="151">
+      <c r="S21" s="10">
         <v>57.612000000000002</v>
       </c>
-      <c r="T21" s="151">
+      <c r="T21" s="10">
         <v>57.671999999999997</v>
       </c>
-      <c r="U21" s="146">
+      <c r="U21" s="126">
         <f>E21-T21-S21-R21</f>
         <v>63.135000000000005</v>
       </c>
-      <c r="V21" s="151">
+      <c r="V21" s="10">
         <v>52.637999999999998</v>
       </c>
-      <c r="W21" s="152">
+      <c r="W21" s="15">
         <v>52.158999999999999</v>
       </c>
-      <c r="X21" s="151"/>
-      <c r="Y21" s="151"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
     </row>
     <row r="22" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="145">
-        <f t="shared" ref="C22:E22" si="35">C20+C21+C11+C16+C18</f>
+      <c r="C22" s="11">
+        <f t="shared" ref="C22:D22" si="37">C20+C21+C11+C16+C18</f>
         <v>-182.74900000000005</v>
       </c>
-      <c r="D22" s="145">
-        <f t="shared" si="35"/>
+      <c r="D22" s="11">
+        <f t="shared" si="37"/>
         <v>84.589000000000027</v>
       </c>
       <c r="E22" s="14">
         <f>E20+E21+E11+E16+E18</f>
         <v>115.4409999999998</v>
       </c>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="J22" s="145">
-        <f t="shared" ref="J22:U22" si="36">J20+J21+J11+J16+J18</f>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="J22" s="11">
+        <f t="shared" ref="J22:U22" si="38">J20+J21+J11+J16+J18</f>
         <v>0</v>
       </c>
-      <c r="K22" s="145">
-        <f t="shared" si="36"/>
+      <c r="K22" s="11">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="L22" s="145">
-        <f t="shared" si="36"/>
+      <c r="L22" s="11">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="M22" s="145">
-        <f t="shared" si="36"/>
+      <c r="M22" s="11">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="N22" s="145">
-        <f t="shared" si="36"/>
+      <c r="N22" s="11">
+        <f t="shared" si="38"/>
         <v>16.895000000000014</v>
       </c>
-      <c r="O22" s="145">
-        <f t="shared" si="36"/>
+      <c r="O22" s="11">
+        <f t="shared" si="38"/>
         <v>16.492000000000029</v>
       </c>
-      <c r="P22" s="145">
-        <f t="shared" si="36"/>
+      <c r="P22" s="11">
+        <f t="shared" si="38"/>
         <v>19.604000000000021</v>
       </c>
-      <c r="Q22" s="145">
-        <f t="shared" si="36"/>
+      <c r="Q22" s="11">
+        <f t="shared" si="38"/>
         <v>31.597999999999914</v>
       </c>
-      <c r="R22" s="145">
-        <f t="shared" si="36"/>
+      <c r="R22" s="11">
+        <f t="shared" si="38"/>
         <v>21.541000000000011</v>
       </c>
-      <c r="S22" s="145">
+      <c r="S22" s="11">
         <f>S20+S21+S11+S16+S18</f>
         <v>21.254000000000005</v>
       </c>
-      <c r="T22" s="145">
-        <f t="shared" si="36"/>
+      <c r="T22" s="11">
+        <f t="shared" si="38"/>
         <v>30.561999999999962</v>
       </c>
-      <c r="U22" s="145">
-        <f t="shared" si="36"/>
+      <c r="U22" s="11">
+        <f t="shared" si="38"/>
         <v>42.083999999999953</v>
       </c>
-      <c r="V22" s="145">
+      <c r="V22" s="11">
         <f>V20+V21+V11+V16+V18</f>
         <v>27.830000000000034</v>
       </c>
-      <c r="W22" s="145">
+      <c r="W22" s="11">
         <f>W20+W21+W11+W16+W18</f>
         <v>36.030000000000022</v>
       </c>
@@ -15447,7 +15447,7 @@
       <c r="T23" s="10">
         <v>158.055789</v>
       </c>
-      <c r="U23" s="146">
+      <c r="U23" s="126">
         <v>162</v>
       </c>
       <c r="V23" s="10">
@@ -15478,67 +15478,67 @@
       <c r="F24" s="54"/>
       <c r="G24" s="55"/>
       <c r="J24" s="2" t="e">
-        <f>J20/J23</f>
+        <f t="shared" ref="J24:Y24" si="39">J20/J23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="2" t="e">
-        <f>K20/K23</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="2" t="e">
-        <f>L20/L23</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="2" t="e">
-        <f>M20/M23</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="2">
-        <f>N20/N23</f>
+        <f t="shared" si="39"/>
         <v>-0.53906969537009752</v>
       </c>
       <c r="O24" s="2">
-        <f>O20/O23</f>
+        <f t="shared" si="39"/>
         <v>-0.63583308379369374</v>
       </c>
       <c r="P24" s="2">
-        <f>P20/P23</f>
+        <f t="shared" si="39"/>
         <v>-0.49940919296430347</v>
       </c>
       <c r="Q24" s="2">
-        <f>Q20/Q23</f>
+        <f t="shared" si="39"/>
         <v>-0.34673103448275933</v>
       </c>
       <c r="R24" s="2">
-        <f>R20/R23</f>
+        <f t="shared" si="39"/>
         <v>-0.37860429852637029</v>
       </c>
       <c r="S24" s="2">
-        <f>S20/S23</f>
+        <f t="shared" si="39"/>
         <v>-0.33701061128372922</v>
       </c>
       <c r="T24" s="2">
-        <f>T20/T23</f>
+        <f t="shared" si="39"/>
         <v>-0.27523825780275618</v>
       </c>
       <c r="U24" s="2">
-        <f>U20/U23</f>
+        <f t="shared" si="39"/>
         <v>-0.21625925925925957</v>
       </c>
       <c r="V24" s="2">
-        <f>V20/V23</f>
+        <f t="shared" si="39"/>
         <v>-0.23135544536440047</v>
       </c>
       <c r="W24" s="35">
-        <f>W20/W23</f>
+        <f t="shared" si="39"/>
         <v>-0.15750245974259039</v>
       </c>
       <c r="X24" s="2" t="e">
-        <f>X20/X23</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y24" s="2" t="e">
-        <f>Y20/Y23</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15588,12 +15588,12 @@
       <c r="B26" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="154">
-        <f t="shared" ref="C26:D26" si="37">C22/C23</f>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:D26" si="40">C22/C23</f>
         <v>-2.1022017033943161</v>
       </c>
-      <c r="D26" s="154">
-        <f t="shared" si="37"/>
+      <c r="D26" s="2">
+        <f t="shared" si="40"/>
         <v>0.60861847477140851</v>
       </c>
       <c r="E26" s="35">
@@ -15602,68 +15602,68 @@
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="45"/>
-      <c r="J26" s="154" t="e">
-        <f t="shared" ref="J26:Y26" si="38">J22/J23</f>
+      <c r="J26" s="2" t="e">
+        <f t="shared" ref="J26:Y26" si="41">J22/J23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="154" t="e">
-        <f t="shared" si="38"/>
+      <c r="K26" s="2" t="e">
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="154" t="e">
-        <f t="shared" si="38"/>
+      <c r="L26" s="2" t="e">
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="154" t="e">
-        <f t="shared" si="38"/>
+      <c r="M26" s="2" t="e">
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="154">
-        <f t="shared" si="38"/>
+      <c r="N26" s="2">
+        <f t="shared" si="41"/>
         <v>0.12600244190420451</v>
       </c>
-      <c r="O26" s="154">
-        <f t="shared" si="38"/>
+      <c r="O26" s="2">
+        <f t="shared" si="41"/>
         <v>0.12135072927285122</v>
       </c>
-      <c r="P26" s="154">
-        <f t="shared" si="38"/>
+      <c r="P26" s="2">
+        <f t="shared" si="41"/>
         <v>0.13943683337898735</v>
       </c>
-      <c r="Q26" s="154">
-        <f t="shared" si="38"/>
+      <c r="Q26" s="2">
+        <f t="shared" si="41"/>
         <v>0.21791724137930976</v>
       </c>
-      <c r="R26" s="154">
-        <f t="shared" si="38"/>
+      <c r="R26" s="2">
+        <f t="shared" si="41"/>
         <v>0.14356279387685797</v>
       </c>
-      <c r="S26" s="154">
-        <f t="shared" si="38"/>
+      <c r="S26" s="2">
+        <f t="shared" si="41"/>
         <v>0.13747957874559763</v>
       </c>
-      <c r="T26" s="154">
-        <f t="shared" si="38"/>
+      <c r="T26" s="2">
+        <f t="shared" si="41"/>
         <v>0.19336210456676131</v>
       </c>
-      <c r="U26" s="154">
-        <f t="shared" si="38"/>
+      <c r="U26" s="2">
+        <f t="shared" si="41"/>
         <v>0.2597777777777775</v>
       </c>
-      <c r="V26" s="154">
-        <f t="shared" si="38"/>
+      <c r="V26" s="2">
+        <f t="shared" si="41"/>
         <v>0.16252579878057549</v>
       </c>
-      <c r="W26" s="154">
-        <f t="shared" si="38"/>
+      <c r="W26" s="2">
+        <f t="shared" si="41"/>
         <v>0.20256339905498985</v>
       </c>
-      <c r="X26" s="154" t="e">
-        <f t="shared" si="38"/>
+      <c r="X26" s="2" t="e">
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y26" s="154" t="e">
-        <f t="shared" si="38"/>
+      <c r="Y26" s="2" t="e">
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15686,67 +15686,67 @@
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="J27" s="3" t="e">
-        <f>1-J7/J5</f>
+        <f t="shared" ref="J27:Y27" si="42">1-J7/J5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="3" t="e">
-        <f>1-K7/K5</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="3" t="e">
-        <f>1-L7/L5</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="3" t="e">
-        <f>1-M7/M5</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="3">
-        <f>1-N7/N5</f>
+        <f t="shared" si="42"/>
         <v>0.66955206386416188</v>
       </c>
       <c r="O27" s="3">
-        <f>1-O7/O5</f>
+        <f t="shared" si="42"/>
         <v>0.63413959111732621</v>
       </c>
       <c r="P27" s="3">
-        <f>1-P7/P5</f>
+        <f t="shared" si="42"/>
         <v>0.62214617870372801</v>
       </c>
       <c r="Q27" s="3">
-        <f>1-Q7/Q5</f>
+        <f t="shared" si="42"/>
         <v>0.62327852004110973</v>
       </c>
       <c r="R27" s="3">
-        <f>1-R7/R5</f>
+        <f t="shared" si="42"/>
         <v>0.65514397025418458</v>
       </c>
       <c r="S27" s="3">
-        <f>1-S7/S5</f>
+        <f t="shared" si="42"/>
         <v>0.63893561172642976</v>
       </c>
       <c r="T27" s="3">
-        <f>1-T7/T5</f>
+        <f t="shared" si="42"/>
         <v>0.61118401557803836</v>
       </c>
       <c r="U27" s="3">
-        <f>1-U7/U5</f>
+        <f t="shared" si="42"/>
         <v>0.5976844807911752</v>
       </c>
       <c r="V27" s="3">
-        <f>1-V7/V5</f>
+        <f t="shared" si="42"/>
         <v>0.60567231093579277</v>
       </c>
       <c r="W27" s="6">
-        <f>1-W7/W5</f>
+        <f t="shared" si="42"/>
         <v>0.60023525384152854</v>
       </c>
       <c r="X27" s="3" t="e">
-        <f>1-X7/X5</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y27" s="3" t="e">
-        <f>1-Y7/Y5</f>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15775,67 +15775,67 @@
         <v>0</v>
       </c>
       <c r="J28" s="4" t="e">
-        <f>J20/J5</f>
+        <f t="shared" ref="J28:Y28" si="43">J20/J5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="4" t="e">
-        <f>K20/K5</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="4" t="e">
-        <f>L20/L5</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4" t="e">
-        <f>M20/M5</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4">
-        <f>N20/N5</f>
+        <f t="shared" si="43"/>
         <v>-0.57244115690436204</v>
       </c>
       <c r="O28" s="4">
-        <f>O20/O5</f>
+        <f t="shared" si="43"/>
         <v>-0.62936176721218307</v>
       </c>
       <c r="P28" s="4">
-        <f>P20/P5</f>
+        <f t="shared" si="43"/>
         <v>-0.4611696398076871</v>
       </c>
       <c r="Q28" s="4">
-        <f>Q20/Q5</f>
+        <f t="shared" si="43"/>
         <v>-0.28706177914811076</v>
       </c>
       <c r="R28" s="4">
-        <f>R20/R5</f>
+        <f t="shared" si="43"/>
         <v>-0.36045227852438416</v>
       </c>
       <c r="S28" s="4">
-        <f>S20/S5</f>
+        <f t="shared" si="43"/>
         <v>-0.30323541907960216</v>
       </c>
       <c r="T28" s="4">
-        <f>T20/T5</f>
+        <f t="shared" si="43"/>
         <v>-0.23019409050501652</v>
       </c>
       <c r="U28" s="4">
-        <f>U20/U5</f>
+        <f t="shared" si="43"/>
         <v>-0.16657474324838367</v>
       </c>
       <c r="V28" s="4">
-        <f>V20/V5</f>
+        <f t="shared" si="43"/>
         <v>-0.20321420693829587</v>
       </c>
       <c r="W28" s="7">
-        <f>W20/W5</f>
+        <f t="shared" si="43"/>
         <v>-0.12295963377648239</v>
       </c>
       <c r="X28" s="4" t="e">
-        <f>X20/X5</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y28" s="4" t="e">
-        <f>Y20/Y5</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15865,43 +15865,43 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="e">
-        <f>N5/J5-1</f>
+        <f t="shared" ref="N29:W29" si="44">N5/J5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="4" t="e">
-        <f>O5/K5-1</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="4" t="e">
-        <f>P5/L5-1</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f>Q5/M5-1</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="4">
-        <f>R5/N5-1</f>
+        <f t="shared" si="44"/>
         <v>0.24815471853517912</v>
       </c>
       <c r="S29" s="4">
-        <f>S5/O5-1</f>
+        <f t="shared" si="44"/>
         <v>0.2513892833992466</v>
       </c>
       <c r="T29" s="4">
-        <f>T5/P5-1</f>
+        <f t="shared" si="44"/>
         <v>0.2412579145101541</v>
       </c>
       <c r="U29" s="4">
-        <f>U5/Q5-1</f>
+        <f t="shared" si="44"/>
         <v>0.20086787712686993</v>
       </c>
-      <c r="V29" s="155">
-        <f>V5/R5-1</f>
+      <c r="V29" s="128">
+        <f t="shared" si="44"/>
         <v>0.23695765282166459</v>
       </c>
-      <c r="W29" s="156">
-        <f>W5/S5-1</f>
+      <c r="W29" s="129">
+        <f t="shared" si="44"/>
         <v>0.32605621096864712</v>
       </c>
       <c r="X29" s="4">
@@ -15917,11 +15917,11 @@
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="148">
+      <c r="C30" s="4">
         <f>C9/C5</f>
         <v>0.50037963249828732</v>
       </c>
-      <c r="D30" s="148">
+      <c r="D30" s="4">
         <f>D9/D5</f>
         <v>0.50635828760273516</v>
       </c>
@@ -15931,68 +15931,68 @@
       </c>
       <c r="F30" s="121"/>
       <c r="G30" s="121"/>
-      <c r="J30" s="148" t="e">
-        <f t="shared" ref="J30:Y30" si="39">J9/J5</f>
+      <c r="J30" s="4" t="e">
+        <f t="shared" ref="J30:Y30" si="45">J9/J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="148" t="e">
-        <f t="shared" si="39"/>
+      <c r="K30" s="4" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="148" t="e">
-        <f t="shared" si="39"/>
+      <c r="L30" s="4" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="148" t="e">
-        <f t="shared" si="39"/>
+      <c r="M30" s="4" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="148">
-        <f t="shared" si="39"/>
+      <c r="N30" s="4">
+        <f t="shared" si="45"/>
         <v>0.5458073304400165</v>
       </c>
-      <c r="O30" s="148">
-        <f t="shared" si="39"/>
+      <c r="O30" s="4">
+        <f t="shared" si="45"/>
         <v>0.56182402167500589</v>
       </c>
-      <c r="P30" s="148">
-        <f t="shared" si="39"/>
+      <c r="P30" s="4">
+        <f t="shared" si="45"/>
         <v>0.50565509812678977</v>
       </c>
-      <c r="Q30" s="148">
-        <f t="shared" si="39"/>
+      <c r="Q30" s="4">
+        <f t="shared" si="45"/>
         <v>0.43504624871531367</v>
       </c>
-      <c r="R30" s="148">
-        <f t="shared" si="39"/>
+      <c r="R30" s="4">
+        <f t="shared" si="45"/>
         <v>0.46033045265923023</v>
       </c>
-      <c r="S30" s="148">
-        <f t="shared" si="39"/>
+      <c r="S30" s="4">
+        <f t="shared" si="45"/>
         <v>0.42193729374858135</v>
       </c>
-      <c r="T30" s="148">
-        <f t="shared" si="39"/>
+      <c r="T30" s="4">
+        <f t="shared" si="45"/>
         <v>0.3739417093510562</v>
       </c>
-      <c r="U30" s="148">
-        <f t="shared" si="39"/>
+      <c r="U30" s="4">
+        <f t="shared" si="45"/>
         <v>0.34579212628375816</v>
       </c>
-      <c r="V30" s="148">
-        <f t="shared" si="39"/>
+      <c r="V30" s="4">
+        <f t="shared" si="45"/>
         <v>0.36633033593745995</v>
       </c>
       <c r="W30" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.33183081035292467</v>
       </c>
-      <c r="X30" s="148" t="e">
-        <f t="shared" si="39"/>
+      <c r="X30" s="4" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y30" s="148" t="e">
-        <f t="shared" si="39"/>
+      <c r="Y30" s="4" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16000,11 +16000,11 @@
       <c r="B31" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="148">
+      <c r="C31" s="4">
         <f>C10/C5</f>
         <v>0.1406691131872112</v>
       </c>
-      <c r="D31" s="148">
+      <c r="D31" s="4">
         <f>D10/D5</f>
         <v>0.11752721414780332</v>
       </c>
@@ -16014,68 +16014,68 @@
       </c>
       <c r="F31" s="121"/>
       <c r="G31" s="121"/>
-      <c r="J31" s="148" t="e">
-        <f t="shared" ref="J31:Y31" si="40">J10/J5</f>
+      <c r="J31" s="4" t="e">
+        <f t="shared" ref="J31:Y31" si="46">J10/J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="148" t="e">
-        <f t="shared" si="40"/>
+      <c r="K31" s="4" t="e">
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="148" t="e">
-        <f t="shared" si="40"/>
+      <c r="L31" s="4" t="e">
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="148" t="e">
-        <f t="shared" si="40"/>
+      <c r="M31" s="4" t="e">
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="148">
-        <f t="shared" si="40"/>
+      <c r="N31" s="4">
+        <f t="shared" si="46"/>
         <v>0.13646371210441285</v>
       </c>
-      <c r="O31" s="148">
-        <f t="shared" si="40"/>
+      <c r="O31" s="4">
+        <f t="shared" si="46"/>
         <v>0.13137559085512851</v>
       </c>
-      <c r="P31" s="148">
-        <f t="shared" si="40"/>
+      <c r="P31" s="4">
+        <f t="shared" si="46"/>
         <v>0.11135485904947061</v>
       </c>
-      <c r="Q31" s="148">
-        <f t="shared" si="40"/>
+      <c r="Q31" s="4">
+        <f t="shared" si="46"/>
         <v>9.8384149822998701E-2</v>
       </c>
-      <c r="R31" s="148">
-        <f t="shared" si="40"/>
+      <c r="R31" s="4">
+        <f t="shared" si="46"/>
         <v>0.11750485399931472</v>
       </c>
-      <c r="S31" s="148">
-        <f t="shared" si="40"/>
+      <c r="S31" s="4">
+        <f t="shared" si="46"/>
         <v>0.10093878952606554</v>
       </c>
-      <c r="T31" s="148">
-        <f t="shared" si="40"/>
+      <c r="T31" s="4">
+        <f t="shared" si="46"/>
         <v>9.5574228506116937E-2</v>
       </c>
-      <c r="U31" s="148">
-        <f t="shared" si="40"/>
+      <c r="U31" s="4">
+        <f t="shared" si="46"/>
         <v>9.483168505135034E-2</v>
       </c>
-      <c r="V31" s="148">
-        <f t="shared" si="40"/>
+      <c r="V31" s="4">
+        <f t="shared" si="46"/>
         <v>0.10252017214935341</v>
       </c>
       <c r="W31" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.10364336219874561</v>
       </c>
-      <c r="X31" s="148" t="e">
-        <f t="shared" si="40"/>
+      <c r="X31" s="4" t="e">
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y31" s="148" t="e">
-        <f t="shared" si="40"/>
+      <c r="Y31" s="4" t="e">
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16083,11 +16083,11 @@
       <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="148">
+      <c r="C32" s="4">
         <f>C8/C5</f>
         <v>0.4136816061509192</v>
       </c>
-      <c r="D32" s="148">
+      <c r="D32" s="4">
         <f>D8/D5</f>
         <v>0.36147055389441946</v>
       </c>
@@ -16097,68 +16097,68 @@
       </c>
       <c r="F32" s="121"/>
       <c r="G32" s="121"/>
-      <c r="J32" s="148" t="e">
-        <f t="shared" ref="J32:Y32" si="41">J8/J5</f>
+      <c r="J32" s="4" t="e">
+        <f t="shared" ref="J32:Y32" si="47">J8/J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="148" t="e">
-        <f t="shared" si="41"/>
+      <c r="K32" s="4" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="148" t="e">
-        <f t="shared" si="41"/>
+      <c r="L32" s="4" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="148" t="e">
-        <f t="shared" si="41"/>
+      <c r="M32" s="4" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="148">
-        <f t="shared" si="41"/>
+      <c r="N32" s="4">
+        <f t="shared" si="47"/>
         <v>0.42250609814046314</v>
       </c>
-      <c r="O32" s="148">
-        <f t="shared" si="41"/>
+      <c r="O32" s="4">
+        <f t="shared" si="47"/>
         <v>0.40542312146306286</v>
       </c>
-      <c r="P32" s="148">
-        <f t="shared" si="41"/>
+      <c r="P32" s="4">
+        <f t="shared" si="47"/>
         <v>0.3519428316212595</v>
       </c>
-      <c r="Q32" s="148">
-        <f t="shared" si="41"/>
+      <c r="Q32" s="4">
+        <f t="shared" si="47"/>
         <v>0.29129268014160115</v>
       </c>
-      <c r="R32" s="148">
-        <f t="shared" si="41"/>
+      <c r="R32" s="4">
+        <f t="shared" si="47"/>
         <v>0.33375845484194361</v>
       </c>
-      <c r="S32" s="148">
-        <f t="shared" si="41"/>
+      <c r="S32" s="4">
+        <f t="shared" si="47"/>
         <v>0.29516869692754505</v>
       </c>
-      <c r="T32" s="148">
-        <f t="shared" si="41"/>
+      <c r="T32" s="4">
+        <f t="shared" si="47"/>
         <v>0.26830842822672823</v>
       </c>
-      <c r="U32" s="148">
-        <f t="shared" si="41"/>
+      <c r="U32" s="4">
+        <f t="shared" si="47"/>
         <v>0.24437523773297845</v>
       </c>
-      <c r="V32" s="148">
-        <f t="shared" si="41"/>
+      <c r="V32" s="4">
+        <f t="shared" si="47"/>
         <v>0.2503552247533945</v>
       </c>
       <c r="W32" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0.22454013579764659</v>
       </c>
-      <c r="X32" s="148" t="e">
-        <f t="shared" si="41"/>
+      <c r="X32" s="4" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y32" s="148" t="e">
-        <f t="shared" si="41"/>
+      <c r="Y32" s="4" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16263,31 +16263,31 @@
         <f>P20/L20-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q35" s="158" t="e">
-        <f t="shared" ref="Q35:U35" si="42">Q26/M26-1</f>
+      <c r="Q35" s="4" t="e">
+        <f t="shared" ref="Q35:U35" si="48">Q26/M26-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="159">
-        <f t="shared" si="42"/>
+      <c r="R35" s="130">
+        <f t="shared" si="48"/>
         <v>0.13936517187503417</v>
       </c>
-      <c r="S35" s="159">
-        <f t="shared" si="42"/>
+      <c r="S35" s="130">
+        <f t="shared" si="48"/>
         <v>0.13291102220310091</v>
       </c>
-      <c r="T35" s="159">
-        <f t="shared" si="42"/>
+      <c r="T35" s="130">
+        <f t="shared" si="48"/>
         <v>0.38673620076558857</v>
       </c>
-      <c r="U35" s="159">
-        <f t="shared" si="42"/>
+      <c r="U35" s="130">
+        <f t="shared" si="48"/>
         <v>0.19209373307734157</v>
       </c>
-      <c r="V35" s="157">
+      <c r="V35" s="128">
         <f>V26/R26-1</f>
         <v>0.13208857526124196</v>
       </c>
-      <c r="W35" s="156">
+      <c r="W35" s="129">
         <f>W22/S22-1</f>
         <v>0.69521031335278138</v>
       </c>
@@ -16304,11 +16304,11 @@
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="145">
-        <f t="shared" ref="C38" si="43">C39-C58</f>
+      <c r="C38" s="11">
+        <f t="shared" ref="C38" si="49">C39-C58</f>
         <v>0</v>
       </c>
-      <c r="D38" s="145">
+      <c r="D38" s="11">
         <f>D39-D58</f>
         <v>-62.843000000000004</v>
       </c>
@@ -16316,76 +16316,76 @@
         <f>E39-E58</f>
         <v>-52.414999999999992</v>
       </c>
-      <c r="F38" s="145">
-        <f t="shared" ref="F38:G38" si="44">F39-F58</f>
+      <c r="F38" s="11">
+        <f t="shared" ref="F38:G38" si="50">F39-F58</f>
         <v>0</v>
       </c>
-      <c r="G38" s="145">
-        <f t="shared" si="44"/>
+      <c r="G38" s="11">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="J38" s="145">
-        <f t="shared" ref="J38:Y38" si="45">J39-J58</f>
+      <c r="J38" s="11">
+        <f t="shared" ref="J38:Y38" si="51">J39-J58</f>
         <v>0</v>
       </c>
-      <c r="K38" s="145">
-        <f t="shared" si="45"/>
+      <c r="K38" s="11">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="L38" s="145">
-        <f t="shared" si="45"/>
+      <c r="L38" s="11">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="M38" s="145">
-        <f t="shared" si="45"/>
+      <c r="M38" s="11">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="N38" s="145">
-        <f t="shared" si="45"/>
+      <c r="N38" s="11">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="O38" s="145">
-        <f t="shared" si="45"/>
+      <c r="O38" s="11">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="P38" s="145">
-        <f t="shared" si="45"/>
+      <c r="P38" s="11">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="145">
-        <f t="shared" si="45"/>
+      <c r="Q38" s="11">
+        <f t="shared" si="51"/>
         <v>-62.843000000000004</v>
       </c>
-      <c r="R38" s="145">
-        <f t="shared" si="45"/>
+      <c r="R38" s="11">
+        <f t="shared" si="51"/>
         <v>-76.046000000000006</v>
       </c>
-      <c r="S38" s="145">
-        <f t="shared" si="45"/>
+      <c r="S38" s="11">
+        <f t="shared" si="51"/>
         <v>-66.876000000000005</v>
       </c>
-      <c r="T38" s="145">
-        <f t="shared" si="45"/>
+      <c r="T38" s="11">
+        <f t="shared" si="51"/>
         <v>-63.248000000000005</v>
       </c>
-      <c r="U38" s="145">
-        <f t="shared" si="45"/>
+      <c r="U38" s="11">
+        <f t="shared" si="51"/>
         <v>-52.414999999999992</v>
       </c>
-      <c r="V38" s="145">
-        <f t="shared" si="45"/>
+      <c r="V38" s="11">
+        <f t="shared" si="51"/>
         <v>-42.599999999999994</v>
       </c>
       <c r="W38" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>-29.646999999999991</v>
       </c>
-      <c r="X38" s="145">
-        <f t="shared" si="45"/>
+      <c r="X38" s="11">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="145">
-        <f t="shared" si="45"/>
+      <c r="Y38" s="11">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -16452,7 +16452,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10">
-        <f t="shared" ref="Q40:Q42" si="46">D40</f>
+        <f t="shared" ref="Q40:Q42" si="52">D40</f>
         <v>106.322</v>
       </c>
       <c r="R40" s="10">
@@ -16465,7 +16465,7 @@
         <v>140.40799999999999</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" ref="U40:U42" si="47">E40</f>
+        <f t="shared" ref="U40:U42" si="53">E40</f>
         <v>170.131</v>
       </c>
       <c r="V40" s="10">
@@ -16496,7 +16496,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>7.15</v>
       </c>
       <c r="R41" s="10">
@@ -16509,7 +16509,7 @@
         <v>6.4930000000000003</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>6.2690000000000001</v>
       </c>
       <c r="V41" s="10">
@@ -16540,7 +16540,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1.8660000000000001</v>
       </c>
       <c r="R42" s="10">
@@ -16553,7 +16553,7 @@
         <v>1.835</v>
       </c>
       <c r="U42" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1.6220000000000001</v>
       </c>
       <c r="V42" s="10">
@@ -16582,67 +16582,67 @@
         <v>309.75400000000002</v>
       </c>
       <c r="J43" s="11">
-        <f>SUM(J39:J42)</f>
+        <f t="shared" ref="J43:Y43" si="54">SUM(J39:J42)</f>
         <v>0</v>
       </c>
       <c r="K43" s="11">
-        <f>SUM(K39:K42)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L43" s="11">
-        <f>SUM(L39:L42)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M43" s="11">
-        <f>SUM(M39:M42)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
-        <f>SUM(N39:N42)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O43" s="11">
-        <f>SUM(O39:O42)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="P43" s="11">
-        <f>SUM(P39:P42)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q43" s="11">
-        <f>SUM(Q39:Q42)</f>
+        <f t="shared" si="54"/>
         <v>236.44800000000004</v>
       </c>
       <c r="R43" s="11">
-        <f>SUM(R39:R42)</f>
+        <f t="shared" si="54"/>
         <v>226.03700000000001</v>
       </c>
       <c r="S43" s="11">
-        <f>SUM(S39:S42)</f>
+        <f t="shared" si="54"/>
         <v>246.54400000000001</v>
       </c>
       <c r="T43" s="11">
-        <f>SUM(T39:T42)</f>
+        <f t="shared" si="54"/>
         <v>269.53199999999998</v>
       </c>
       <c r="U43" s="11">
-        <f>SUM(U39:U42)</f>
+        <f t="shared" si="54"/>
         <v>309.75400000000002</v>
       </c>
       <c r="V43" s="11">
-        <f>SUM(V39:V42)</f>
+        <f t="shared" si="54"/>
         <v>310.91700000000003</v>
       </c>
       <c r="W43" s="14">
-        <f>SUM(W39:W42)</f>
+        <f t="shared" si="54"/>
         <v>347.56900000000002</v>
       </c>
       <c r="X43" s="11">
-        <f>SUM(X39:X42)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Y43" s="11">
-        <f>SUM(Y39:Y42)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -16665,7 +16665,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10">
-        <f t="shared" ref="Q44:Q50" si="48">D44</f>
+        <f t="shared" ref="Q44:Q50" si="55">D44</f>
         <v>5.9809999999999999</v>
       </c>
       <c r="R44" s="10">
@@ -16678,7 +16678,7 @@
         <v>7.4560000000000004</v>
       </c>
       <c r="U44" s="10">
-        <f t="shared" ref="U44:U50" si="49">E44</f>
+        <f t="shared" ref="U44:U50" si="56">E44</f>
         <v>7.452</v>
       </c>
       <c r="V44" s="10">
@@ -16709,7 +16709,7 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>36.713000000000001</v>
       </c>
       <c r="R45" s="10">
@@ -16722,7 +16722,7 @@
         <v>33.183</v>
       </c>
       <c r="U45" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>32.124000000000002</v>
       </c>
       <c r="V45" s="10">
@@ -16753,7 +16753,7 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>7.3879999999999999</v>
       </c>
       <c r="R46" s="10">
@@ -16766,7 +16766,7 @@
         <v>5.9429999999999996</v>
       </c>
       <c r="U46" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>6.6029999999999998</v>
       </c>
       <c r="V46" s="10">
@@ -16797,7 +16797,7 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>44.357999999999997</v>
       </c>
       <c r="R47" s="10">
@@ -16810,7 +16810,7 @@
         <v>50.098999999999997</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>48.780999999999999</v>
       </c>
       <c r="V47" s="10">
@@ -16841,7 +16841,7 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>133.06899999999999</v>
       </c>
       <c r="R48" s="10">
@@ -16854,7 +16854,7 @@
         <v>140.89400000000001</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>140.905</v>
       </c>
       <c r="V48" s="10">
@@ -16885,7 +16885,7 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.745</v>
       </c>
       <c r="R49" s="10">
@@ -16898,7 +16898,7 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="U49" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.72799999999999998</v>
       </c>
       <c r="V49" s="10">
@@ -16929,7 +16929,7 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>1.8</v>
       </c>
       <c r="R50" s="10">
@@ -16942,7 +16942,7 @@
         <v>3.403</v>
       </c>
       <c r="U50" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>4.367</v>
       </c>
       <c r="V50" s="10">
@@ -16971,67 +16971,67 @@
         <v>550.71399999999994</v>
       </c>
       <c r="J51" s="11">
-        <f t="shared" ref="J51:T51" si="50">SUM(J43:J50)</f>
+        <f t="shared" ref="J51:T51" si="57">SUM(J43:J50)</f>
         <v>0</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="P51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Q51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>466.50200000000001</v>
       </c>
       <c r="R51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>469.85099999999994</v>
       </c>
       <c r="S51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>491.20600000000007</v>
       </c>
       <c r="T51" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>511.34499999999997</v>
       </c>
       <c r="U51" s="11">
-        <f t="shared" ref="U51:Y51" si="51">SUM(U43:U50)</f>
+        <f t="shared" ref="U51:Y51" si="58">SUM(U43:U50)</f>
         <v>550.71399999999994</v>
       </c>
       <c r="V51" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>550.29200000000014</v>
       </c>
       <c r="W51" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>583.86399999999992</v>
       </c>
       <c r="X51" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Y51" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -17054,7 +17054,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52:Q56" si="52">D52</f>
+        <f t="shared" ref="Q52:Q56" si="59">D52</f>
         <v>33.667999999999999</v>
       </c>
       <c r="R52" s="10">
@@ -17067,7 +17067,7 @@
         <v>59.173000000000002</v>
       </c>
       <c r="U52" s="10">
-        <f t="shared" ref="U52:U56" si="53">E52</f>
+        <f t="shared" ref="U52:U56" si="60">E52</f>
         <v>63.572000000000003</v>
       </c>
       <c r="V52" s="10">
@@ -17098,7 +17098,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>72.364000000000004</v>
       </c>
       <c r="R53" s="10">
@@ -17111,7 +17111,7 @@
         <v>73.135000000000005</v>
       </c>
       <c r="U53" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>85.454999999999998</v>
       </c>
       <c r="V53" s="10">
@@ -17142,7 +17142,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>14.743</v>
       </c>
       <c r="R54" s="10">
@@ -17155,7 +17155,7 @@
         <v>21.812000000000001</v>
       </c>
       <c r="U54" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>17.234000000000002</v>
       </c>
       <c r="V54" s="10">
@@ -17186,7 +17186,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>2.2280000000000002</v>
       </c>
       <c r="R55" s="10">
@@ -17199,7 +17199,7 @@
         <v>2.3319999999999999</v>
       </c>
       <c r="U55" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>3.3010000000000002</v>
       </c>
       <c r="V55" s="10">
@@ -17230,7 +17230,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>5.7069999999999999</v>
       </c>
       <c r="R56" s="10">
@@ -17243,7 +17243,7 @@
         <v>6.0860000000000003</v>
       </c>
       <c r="U56" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>6.8230000000000004</v>
       </c>
       <c r="V56" s="10">
@@ -17272,67 +17272,67 @@
         <v>176.38499999999999</v>
       </c>
       <c r="J57" s="11">
-        <f t="shared" ref="J57:T57" si="54">SUM(J52:J56)</f>
+        <f t="shared" ref="J57:T57" si="61">SUM(J52:J56)</f>
         <v>0</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>128.71</v>
       </c>
       <c r="R57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>130.04499999999999</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>147.29</v>
       </c>
       <c r="T57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>162.53800000000001</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" ref="U57:Y57" si="55">SUM(U52:U56)</f>
+        <f t="shared" ref="U57:Y57" si="62">SUM(U52:U56)</f>
         <v>176.38499999999999</v>
       </c>
       <c r="V57" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>164.42700000000002</v>
       </c>
       <c r="W57" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>175.95099999999999</v>
       </c>
       <c r="X57" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Y57" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10">
-        <f t="shared" ref="Q58:Q60" si="56">D58</f>
+        <f t="shared" ref="Q58:Q60" si="63">D58</f>
         <v>183.953</v>
       </c>
       <c r="R58" s="10">
@@ -17368,7 +17368,7 @@
         <v>184.04400000000001</v>
       </c>
       <c r="U58" s="10">
-        <f t="shared" ref="U58:U60" si="57">E58</f>
+        <f t="shared" ref="U58:U60" si="64">E58</f>
         <v>184.14699999999999</v>
       </c>
       <c r="V58" s="10">
@@ -17399,7 +17399,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>17.931999999999999</v>
       </c>
       <c r="R59" s="10">
@@ -17412,7 +17412,7 @@
         <v>8.4809999999999999</v>
       </c>
       <c r="U59" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>3.06</v>
       </c>
       <c r="V59" s="10">
@@ -17443,7 +17443,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>7.8769999999999998</v>
       </c>
       <c r="R60" s="10">
@@ -17456,7 +17456,7 @@
         <v>6.5039999999999996</v>
       </c>
       <c r="U60" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>6.6020000000000003</v>
       </c>
       <c r="V60" s="10">
@@ -17485,67 +17485,67 @@
         <v>370.19399999999996</v>
       </c>
       <c r="J61" s="11">
-        <f>SUM(J57:J60)</f>
+        <f t="shared" ref="J61:Y61" si="65">SUM(J57:J60)</f>
         <v>0</v>
       </c>
       <c r="K61" s="11">
-        <f>SUM(K57:K60)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="L61" s="11">
-        <f>SUM(L57:L60)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M61" s="11">
-        <f>SUM(M57:M60)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N61" s="11">
-        <f>SUM(N57:N60)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O61" s="11">
-        <f>SUM(O57:O60)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="P61" s="11">
-        <f>SUM(P57:P60)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q61" s="11">
-        <f>SUM(Q57:Q60)</f>
+        <f t="shared" si="65"/>
         <v>338.47200000000004</v>
       </c>
       <c r="R61" s="11">
-        <f>SUM(R57:R60)</f>
+        <f t="shared" si="65"/>
         <v>339.92500000000001</v>
       </c>
       <c r="S61" s="11">
-        <f>SUM(S57:S60)</f>
+        <f t="shared" si="65"/>
         <v>353.858</v>
       </c>
       <c r="T61" s="11">
-        <f>SUM(T57:T60)</f>
+        <f t="shared" si="65"/>
         <v>361.56700000000001</v>
       </c>
       <c r="U61" s="11">
-        <f>SUM(U57:U60)</f>
+        <f t="shared" si="65"/>
         <v>370.19399999999996</v>
       </c>
       <c r="V61" s="11">
-        <f>SUM(V57:V60)</f>
+        <f t="shared" si="65"/>
         <v>358.69100000000003</v>
       </c>
       <c r="W61" s="14">
-        <f>SUM(W57:W60)</f>
+        <f t="shared" si="65"/>
         <v>366.81800000000004</v>
       </c>
       <c r="X61" s="11">
-        <f>SUM(X57:X60)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Y61" s="11">
-        <f>SUM(Y57:Y60)</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -17566,67 +17566,67 @@
         <v>180.51999999999998</v>
       </c>
       <c r="J62" s="10">
-        <f>J51-J61</f>
+        <f t="shared" ref="J62:Y62" si="66">J51-J61</f>
         <v>0</v>
       </c>
       <c r="K62" s="10">
-        <f>K51-K61</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="L62" s="10">
-        <f>L51-L61</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M62" s="10">
-        <f>M51-M61</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="N62" s="10">
-        <f>N51-N61</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O62" s="10">
-        <f>O51-O61</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P62" s="10">
-        <f>P51-P61</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Q62" s="10">
-        <f>Q51-Q61</f>
+        <f t="shared" si="66"/>
         <v>128.02999999999997</v>
       </c>
       <c r="R62" s="10">
-        <f>R51-R61</f>
+        <f t="shared" si="66"/>
         <v>129.92599999999993</v>
       </c>
       <c r="S62" s="10">
-        <f>S51-S61</f>
+        <f t="shared" si="66"/>
         <v>137.34800000000007</v>
       </c>
       <c r="T62" s="10">
-        <f>T51-T61</f>
+        <f t="shared" si="66"/>
         <v>149.77799999999996</v>
       </c>
       <c r="U62" s="10">
-        <f>U51-U61</f>
+        <f t="shared" si="66"/>
         <v>180.51999999999998</v>
       </c>
       <c r="V62" s="10">
-        <f>V51-V61</f>
+        <f t="shared" si="66"/>
         <v>191.60100000000011</v>
       </c>
       <c r="W62" s="15">
-        <f>W51-W61</f>
+        <f t="shared" si="66"/>
         <v>217.04599999999988</v>
       </c>
       <c r="X62" s="10">
-        <f>X51-X61</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Y62" s="10">
-        <f>Y51-Y61</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -26063,14 +26063,14 @@
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="137"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -26477,10 +26477,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="138" t="s">
+      <c r="H17" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="139"/>
+      <c r="I17" s="146"/>
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -26488,8 +26488,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="141"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="M18" s="84"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -26912,14 +26912,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="142" t="s">
+      <c r="H43" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="144"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">

--- a/Business - Technology Services/ZETA.xlsx
+++ b/Business - Technology Services/ZETA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E6E8C-2B7A-493D-8226-5031EF88C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31F08A5-EF34-4F3B-83F9-712CF09C44D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$2:$Y$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$5:$Y$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$6:$Y$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$24:$Y$24</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$J$25:$Y$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$J$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$24:$U$24</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$25:$U$25</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$2:$U$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$2:$U$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$J$5:$U$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$J$6:$U$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="213">
   <si>
     <t>Price</t>
   </si>
@@ -348,15 +348,6 @@
   </si>
   <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
   </si>
   <si>
     <t>Q122</t>
@@ -423,9 +414,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
   </si>
   <si>
     <t>Q223</t>
@@ -1729,7 +1717,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1950,6 +1938,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2071,7 +2070,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2083,14 +2082,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2104,11 +2098,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2167,55 +2156,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$J$2:$Y$2</c:f>
+              <c:f>Model!$J$2:$U$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
@@ -2223,47 +2200,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$5:$V$5</c:f>
+              <c:f>Model!$J$5:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>126.268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>137.30100000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>152.25200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>175.13999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>126.268</c:v>
+                  <c:v>157.602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137.30100000000002</c:v>
+                  <c:v>171.81699999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.25200000000001</c:v>
+                  <c:v>188.98399999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.13999999999996</c:v>
+                  <c:v>210.31999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157.602</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>171.81699999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>188.98399999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>210.31999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>194.947</c:v>
                 </c:pt>
               </c:numCache>
@@ -2373,44 +2338,32 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$29:$Y$29</c:f>
+              <c:f>Model!$J$29:$U$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.24815471853517912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.2513892833992466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.2412579145101541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.20086787712686993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24815471853517912</c:v>
+                  <c:v>0.23695765282166459</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2513892833992466</c:v>
+                  <c:v>0.32605621096864712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2412579145101541</c:v>
+                  <c:v>0.30910553274351282</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20086787712686993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.23695765282166459</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.32605621096864712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.30910553274351282</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.25908139977177647</c:v>
                 </c:pt>
               </c:numCache>
@@ -3031,10 +2984,10 @@
                   <c:v>0.23311521403273638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28247633188468058</c:v>
+                  <c:v>0.35310673603001419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16631177974897549</c:v>
+                  <c:v>0.22713074520303445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3454,55 +3407,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$J$2:$Y$2</c:f>
+              <c:f>Model!$J$2:$U$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
@@ -3510,56 +3451,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$24:$Y$24</c:f>
+              <c:f>Model!$J$24:$U$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.53906969537009752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.63583308379369374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.49940919296430347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.34673103448275933</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.53906969537009752</c:v>
+                  <c:v>-0.37860429852637029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.63583308379369374</c:v>
+                  <c:v>-0.33701061128372922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.49940919296430347</c:v>
+                  <c:v>-0.27523825780275618</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.34673103448275933</c:v>
+                  <c:v>-0.21625925925925957</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.37860429852637029</c:v>
+                  <c:v>-0.23135544536440047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.33701061128372922</c:v>
+                  <c:v>-0.15750245974259039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.27523825780275618</c:v>
+                  <c:v>-9.1689886761952485E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.21625925925925957</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.23135544536440047</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.15750245974259039</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3669,44 +3598,32 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$35:$Y$35</c:f>
+              <c:f>Model!$J$35:$U$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.13936517187503417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.13291102220310091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.38673620076558857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.19209373307734157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13936517187503417</c:v>
+                  <c:v>0.13208857526124196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13291102220310091</c:v>
+                  <c:v>0.69521031335278138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38673620076558857</c:v>
+                  <c:v>-0.12082049178718557</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.19209373307734157</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13208857526124196</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.69521031335278138</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.12082049178718557</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>-0.19161676646706505</c:v>
                 </c:pt>
               </c:numCache>
@@ -4280,7 +4197,7 @@
                   <c:v>-0.22629338311345071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2807017543859649</c:v>
+                  <c:v>0.35087719298245634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,55 +4649,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$J$2:$Y$2</c:f>
+              <c:f>Model!$J$2:$U$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
@@ -4788,56 +4693,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$30:$Y$30</c:f>
+              <c:f>Model!$J$30:$U$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5458073304400165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.56182402167500589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.50565509812678977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.43504624871531367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5458073304400165</c:v>
+                  <c:v>0.46033045265923023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56182402167500589</c:v>
+                  <c:v>0.42193729374858135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50565509812678977</c:v>
+                  <c:v>0.3739417093510562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43504624871531367</c:v>
+                  <c:v>0.34579212628375816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46033045265923023</c:v>
+                  <c:v>0.36633033593745995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42193729374858135</c:v>
+                  <c:v>0.33183081035292467</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3739417093510562</c:v>
+                  <c:v>0.31513073296185173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34579212628375816</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.36633033593745995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.33183081035292467</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4948,55 +4841,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$J$2:$Y$2</c:f>
+              <c:f>Model!$J$2:$U$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
@@ -5004,56 +4885,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$31:$Y$31</c:f>
+              <c:f>Model!$J$31:$U$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.13646371210441285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.13137559085512851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.11135485904947061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.8384149822998701E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13646371210441285</c:v>
+                  <c:v>0.11750485399931472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13137559085512851</c:v>
+                  <c:v>0.10093878952606554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11135485904947061</c:v>
+                  <c:v>9.5574228506116937E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8384149822998701E-2</c:v>
+                  <c:v>9.483168505135034E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11750485399931472</c:v>
+                  <c:v>0.10252017214935341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10093878952606554</c:v>
+                  <c:v>0.10364336219874561</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5574228506116937E-2</c:v>
+                  <c:v>8.5007174938034627E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.483168505135034E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.10252017214935341</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.10364336219874561</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5164,55 +5033,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$J$2:$Y$2</c:f>
+              <c:f>Model!$J$2:$U$2</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q324</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
@@ -5220,56 +5077,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$32:$Y$32</c:f>
+              <c:f>Model!$J$32:$U$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.42250609814046314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.40542312146306286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.3519428316212595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.29129268014160115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42250609814046314</c:v>
+                  <c:v>0.33375845484194361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40542312146306286</c:v>
+                  <c:v>0.29516869692754505</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3519428316212595</c:v>
+                  <c:v>0.26830842822672823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29129268014160115</c:v>
+                  <c:v>0.24437523773297845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33375845484194361</c:v>
+                  <c:v>0.2503552247533945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29516869692754505</c:v>
+                  <c:v>0.22454013579764659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26830842822672823</c:v>
+                  <c:v>0.18820328369891354</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24437523773297845</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2503552247533945</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.22454013579764659</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6856,18 +6701,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6911,7 +6756,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp. (non gaap)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6931,7 +6776,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6962,18 +6807,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7017,7 +6862,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7037,7 +6882,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13353,8 +13198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13377,75 +13222,75 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" s="20">
-        <v>45561</v>
+        <v>45664</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I3" s="10">
         <v>63.508000000000003</v>
       </c>
       <c r="J3" s="38">
         <f>I3/($C$7*1000)</f>
-        <v>4.0529094475573257E-4</v>
+        <v>3.3797906602113032E-4</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.49791666666666667</v>
+        <v>0.19027777777777777</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I4" s="10">
         <v>0</v>
@@ -13455,10 +13300,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -13466,26 +13311,26 @@
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I5" s="10">
         <v>1451.16</v>
       </c>
       <c r="J5" s="38">
         <f t="shared" si="0"/>
-        <v>9.2609121274757327E-3</v>
+        <v>7.7228333666187485E-3</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -13494,29 +13339,29 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>31.38</v>
+        <v>18.98</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I6" s="10">
         <v>21.241</v>
       </c>
       <c r="J6" s="38">
         <f t="shared" si="0"/>
-        <v>1.3555433894244054E-4</v>
+        <v>1.1304108681354835E-4</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -13525,30 +13370,30 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!E23</f>
-        <v>156.69730799999999</v>
+        <f>Model!T23</f>
+        <v>187.90512899999999</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I7" s="10">
         <v>921.92100000000005</v>
       </c>
       <c r="J7" s="38">
         <f t="shared" si="0"/>
-        <v>5.8834514247047571E-3</v>
+        <v>4.9063109927137763E-3</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -13558,29 +13403,29 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>4917.16152504</v>
+        <v>3566.43934842</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I8" s="10">
         <v>60.933</v>
       </c>
       <c r="J8" s="38">
         <f t="shared" si="0"/>
-        <v>3.8885798854949063E-4</v>
+        <v>3.2427534215950012E-4</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -13589,30 +13434,30 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!W39</f>
-        <v>154.70400000000001</v>
+        <f>Model!T39</f>
+        <v>418.53800000000001</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I9" s="10">
         <v>168.178</v>
       </c>
       <c r="J9" s="38">
         <f t="shared" si="0"/>
-        <v>1.0732666830498454E-3</v>
+        <v>8.9501548411698758E-4</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -13621,62 +13466,62 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!W58</f>
-        <v>184.351</v>
+        <f>Model!T58</f>
+        <v>196.089</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I10" s="10">
         <v>2162.89</v>
       </c>
       <c r="J10" s="38">
         <f>I10/($C$7*1000)</f>
-        <v>1.3802981222880996E-2</v>
+        <v>1.1510542641973334E-2</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>-29.646999999999991</v>
+        <v>222.44900000000001</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I11" s="10">
         <v>60.933</v>
       </c>
       <c r="J11" s="38">
         <f t="shared" si="0"/>
-        <v>3.8885798854949063E-4</v>
+        <v>3.2427534215950012E-4</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -13686,16 +13531,16 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>4946.8085250399999</v>
+        <v>3343.9903484199999</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I12" s="10">
         <v>0</v>
@@ -13705,20 +13550,20 @@
         <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="36">
         <f>C6/Model!E24</f>
-        <v>-26.232416402803977</v>
+        <v>-15.866515721007634</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13727,11 +13572,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="36">
-        <f>C6/Model!E14</f>
-        <v>-0.18713659540209301</v>
+        <f>C6/Model!F25</f>
+        <v>33.298245614035089</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13745,16 +13590,16 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" s="36">
-        <f>C6/Model!F25</f>
-        <v>55.05263157894737</v>
+        <f>C6/Model!G25</f>
+        <v>24.649350649350648</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6">
         <f>Model!F25/Model!E24-1</f>
@@ -13763,28 +13608,28 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6">
         <f>Model!G25/Model!F25-1</f>
-        <v>0.2807017543859649</v>
+        <v>0.35087719298245634</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L17" s="133" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M17" s="134"/>
       <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C18" s="50">
         <f>C14/(C16*100)</f>
-        <v>1.2674362994683679E-3</v>
+        <v>-0.22552192482267111</v>
       </c>
       <c r="L18" s="136"/>
       <c r="M18" s="137"/>
@@ -13792,11 +13637,11 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" s="50">
         <f>C15/(C17*100)</f>
-        <v>1.9612500000000002</v>
+        <v>0.70250649350649308</v>
       </c>
       <c r="L19" s="136"/>
       <c r="M19" s="137"/>
@@ -13804,11 +13649,11 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" s="6">
         <f>Model!F6/Model!E5-1</f>
-        <v>0.28247633188468058</v>
+        <v>0.35310673603001419</v>
       </c>
       <c r="L20" s="136"/>
       <c r="M20" s="137"/>
@@ -13816,11 +13661,11 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6">
         <f>Model!G6/Model!F6-1</f>
-        <v>0.16631177974897549</v>
+        <v>0.22713074520303445</v>
       </c>
       <c r="L21" s="136"/>
       <c r="M21" s="137"/>
@@ -13828,7 +13673,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" s="15"/>
       <c r="L22" s="136"/>
@@ -13837,7 +13682,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="15">
         <f>Model!D8</f>
@@ -13849,11 +13694,11 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!E27</f>
-        <v>0.62333836039208301</v>
+        <f>Model!T27</f>
+        <v>0.60620958273542169</v>
       </c>
       <c r="L24" s="136"/>
       <c r="M24" s="137"/>
@@ -13861,11 +13706,11 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!E28</f>
-        <v>-0.25722531057754483</v>
+        <f>Model!T28</f>
+        <v>-6.4216627220037931E-2</v>
       </c>
       <c r="L25" s="136"/>
       <c r="M25" s="137"/>
@@ -13873,11 +13718,11 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>23.157589705966341</v>
+        <v>15.654286208459142</v>
       </c>
       <c r="L26" s="136"/>
       <c r="M26" s="137"/>
@@ -13885,14 +13730,14 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C27" s="120">
-        <f>Main!C10/Model!W62</f>
-        <v>0.84936372934769633</v>
+        <f>Main!C10/Model!T62</f>
+        <v>0.41293456904775439</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L27" s="136"/>
       <c r="M27" s="137"/>
@@ -13900,7 +13745,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" s="36">
         <v>0</v>
@@ -13911,40 +13756,40 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!W43/Model!W57</f>
-        <v>1.9753738256673734</v>
+        <f>Model!T43/Model!T57</f>
+        <v>3.3189901264960842</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!W39+Model!W40)/Model!W57</f>
-        <v>1.9181760831140489</v>
+        <f>(Model!T39+Model!T40)/Model!T57</f>
+        <v>3.2592986407563571</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C31" s="6">
-        <f>(Model!W43-Model!W57)/Model!W51</f>
-        <v>0.29393488894674108</v>
+        <f>(Model!T43-Model!T57)/Model!T51</f>
+        <v>0.50942317229349154</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="36"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" s="36">
         <f>Model!E5/Model!E51</f>
@@ -13953,7 +13798,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" s="38">
         <f>Model!E22/Model!E51</f>
@@ -13962,7 +13807,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C35" s="38">
         <f>Model!E22/Model!E62</f>
@@ -13971,7 +13816,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -13984,13 +13829,13 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E44" s="132" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F44" s="131" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G44" s="131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H44" s="131">
         <v>63.508000000000003</v>
@@ -13998,41 +13843,41 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E45" s="132" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F45" s="131" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G45" s="131" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H45" s="131" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E46" s="132" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F46" s="131" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G46" s="131" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H46" s="131" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E47" s="132" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F47" s="131" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G47" s="131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H47" s="131">
         <v>21.241</v>
@@ -14040,13 +13885,13 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E48" s="132" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F48" s="131" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G48" s="131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H48" s="131">
         <v>921.92100000000005</v>
@@ -14054,13 +13899,13 @@
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E49" s="132" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F49" s="131" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G49" s="131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H49" s="131">
         <v>60.933</v>
@@ -14068,13 +13913,13 @@
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E50" s="132" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F50" s="131" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G50" s="131" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H50" s="131">
         <v>168.178</v>
@@ -14082,27 +13927,27 @@
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E51" s="132" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F51" s="131" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G51" s="131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H51" s="131" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E52" s="132" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F52" s="131" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G52" s="131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H52" s="131">
         <v>60.933</v>
@@ -14110,16 +13955,16 @@
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E53" s="132" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F53" s="131" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G53" s="131" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H53" s="131" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -14145,13 +13990,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14159,82 +14004,71 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="13"/>
+    <col min="19" max="19" width="11.42578125" style="152"/>
+    <col min="20" max="20" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="S2" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C3" s="126">
         <v>428.94099999999997</v>
@@ -14245,42 +14079,45 @@
       <c r="E3" s="127">
         <v>700.06</v>
       </c>
+      <c r="J3" s="126">
+        <v>119.988</v>
+      </c>
+      <c r="K3" s="126">
+        <v>131.94200000000001</v>
+      </c>
+      <c r="L3" s="126">
+        <v>146.488</v>
+      </c>
+      <c r="M3" s="126">
+        <f>D3-L3-K3-J3</f>
+        <v>168.27599999999995</v>
+      </c>
       <c r="N3" s="126">
-        <v>119.988</v>
+        <v>150.40600000000001</v>
       </c>
       <c r="O3" s="126">
-        <v>131.94200000000001</v>
+        <v>163.91399999999999</v>
       </c>
       <c r="P3" s="126">
-        <v>146.488</v>
+        <v>182.23099999999999</v>
       </c>
       <c r="Q3" s="126">
-        <f>D3-P3-O3-N3</f>
-        <v>168.27599999999995</v>
+        <f>E3-P3-O3-N3</f>
+        <v>203.50899999999996</v>
       </c>
       <c r="R3" s="126">
-        <v>150.40600000000001</v>
-      </c>
-      <c r="S3" s="126">
-        <v>163.91399999999999</v>
-      </c>
-      <c r="T3" s="126">
-        <v>182.23099999999999</v>
-      </c>
-      <c r="U3" s="126">
-        <f>E3-T3-S3-R3</f>
-        <v>203.50899999999996</v>
-      </c>
-      <c r="V3" s="126">
         <v>188.178</v>
       </c>
-      <c r="W3" s="127">
+      <c r="S3" s="153">
         <v>222.15600000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T3" s="127">
+        <v>261.49599999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="126">
         <v>29.396999999999998</v>
@@ -14291,42 +14128,45 @@
       <c r="E4" s="127">
         <v>28.663</v>
       </c>
+      <c r="J4" s="126">
+        <v>6.28</v>
+      </c>
+      <c r="K4" s="126">
+        <v>5.359</v>
+      </c>
+      <c r="L4" s="126">
+        <v>5.7640000000000002</v>
+      </c>
+      <c r="M4" s="126">
+        <f>D4-L4-K4-J4</f>
+        <v>6.8639999999999999</v>
+      </c>
       <c r="N4" s="126">
-        <v>6.28</v>
+        <v>7.1959999999999997</v>
       </c>
       <c r="O4" s="126">
-        <v>5.359</v>
+        <v>7.9029999999999996</v>
       </c>
       <c r="P4" s="126">
-        <v>5.7640000000000002</v>
+        <v>6.7530000000000001</v>
       </c>
       <c r="Q4" s="126">
-        <f>D4-P4-O4-N4</f>
-        <v>6.8639999999999999</v>
+        <f>E4-P4-O4-N4</f>
+        <v>6.8110000000000017</v>
       </c>
       <c r="R4" s="126">
-        <v>7.1959999999999997</v>
-      </c>
-      <c r="S4" s="126">
-        <v>7.9029999999999996</v>
-      </c>
-      <c r="T4" s="126">
-        <v>6.7530000000000001</v>
-      </c>
-      <c r="U4" s="126">
-        <f>E4-T4-S4-R4</f>
-        <v>6.8110000000000017</v>
-      </c>
-      <c r="V4" s="126">
         <v>6.7690000000000001</v>
       </c>
-      <c r="W4" s="127">
+      <c r="S4" s="153">
         <v>5.6829999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="127">
+        <v>6.7990000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11">
         <f>SUM(C3:C4)</f>
@@ -14343,82 +14183,66 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="J5" s="11">
-        <f t="shared" ref="J5:Y5" si="0">SUM(J3:J4)</f>
-        <v>0</v>
+        <f t="shared" ref="J5:U5" si="0">SUM(J3:J4)</f>
+        <v>126.268</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>137.30100000000002</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>152.25200000000001</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>175.13999999999996</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="0"/>
-        <v>126.268</v>
+        <v>157.602</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" si="0"/>
-        <v>137.30100000000002</v>
+        <v>171.81699999999998</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>152.25200000000001</v>
+        <v>188.98399999999998</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" si="0"/>
-        <v>175.13999999999996</v>
+        <v>210.31999999999996</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" si="0"/>
-        <v>157.602</v>
-      </c>
-      <c r="S5" s="11">
+        <v>194.947</v>
+      </c>
+      <c r="S5" s="154">
         <f t="shared" si="0"/>
-        <v>171.81699999999998</v>
-      </c>
-      <c r="T5" s="11">
+        <v>227.839</v>
+      </c>
+      <c r="T5" s="14">
         <f t="shared" si="0"/>
-        <v>188.98399999999998</v>
+        <v>268.29499999999996</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" si="0"/>
-        <v>210.31999999999996</v>
-      </c>
-      <c r="V5" s="11">
-        <f t="shared" si="0"/>
-        <v>194.947</v>
-      </c>
-      <c r="W5" s="14">
-        <f t="shared" si="0"/>
-        <v>227.839</v>
-      </c>
-      <c r="X5" s="11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="15"/>
       <c r="F6" s="42">
-        <v>934.57</v>
+        <v>986.04</v>
       </c>
       <c r="G6" s="42">
-        <v>1090</v>
+        <v>1210</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
@@ -14429,21 +14253,17 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="40">
+      <c r="S6" s="155"/>
+      <c r="T6" s="124">
         <v>247.4</v>
       </c>
-      <c r="Y6" s="40">
+      <c r="U6" s="40">
         <v>264.81</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="11">
         <v>174.72</v>
@@ -14456,48 +14276,46 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="J7" s="11">
+        <v>41.725000000000001</v>
+      </c>
+      <c r="K7" s="11">
+        <v>50.232999999999997</v>
+      </c>
+      <c r="L7" s="11">
+        <v>57.529000000000003</v>
+      </c>
+      <c r="M7" s="126">
+        <f>D7-L7-K7-J7</f>
+        <v>65.979000000000013</v>
+      </c>
       <c r="N7" s="11">
-        <v>41.725000000000001</v>
+        <v>54.35</v>
       </c>
       <c r="O7" s="11">
-        <v>50.232999999999997</v>
+        <v>62.036999999999999</v>
       </c>
       <c r="P7" s="11">
-        <v>57.529000000000003</v>
+        <v>73.48</v>
       </c>
       <c r="Q7" s="126">
-        <f t="shared" ref="Q7:Q13" si="1">D7-P7-O7-N7</f>
-        <v>65.979000000000013</v>
+        <f>E7-P7-O7-N7</f>
+        <v>84.615000000000009</v>
       </c>
       <c r="R7" s="11">
-        <v>54.35</v>
-      </c>
-      <c r="S7" s="11">
-        <v>62.036999999999999</v>
-      </c>
-      <c r="T7" s="11">
-        <v>73.48</v>
-      </c>
-      <c r="U7" s="126">
-        <f t="shared" ref="U7:U13" si="2">E7-T7-S7-R7</f>
-        <v>84.615000000000009</v>
-      </c>
-      <c r="V7" s="11">
         <v>76.873000000000005</v>
       </c>
-      <c r="W7" s="14">
+      <c r="S7" s="154">
         <v>91.081999999999994</v>
       </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T7" s="14">
+        <v>105.652</v>
+      </c>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" s="10">
         <v>189.60599999999999</v>
@@ -14510,48 +14328,46 @@
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="J8" s="10">
+        <v>53.348999999999997</v>
+      </c>
+      <c r="K8" s="10">
+        <v>55.664999999999999</v>
+      </c>
+      <c r="L8" s="10">
+        <v>53.584000000000003</v>
+      </c>
+      <c r="M8" s="126">
+        <f>D8-L8-K8-J8</f>
+        <v>51.017000000000017</v>
+      </c>
       <c r="N8" s="10">
-        <v>53.348999999999997</v>
+        <v>52.600999999999999</v>
       </c>
       <c r="O8" s="10">
-        <v>55.664999999999999</v>
+        <v>50.715000000000003</v>
       </c>
       <c r="P8" s="10">
-        <v>53.584000000000003</v>
+        <v>50.706000000000003</v>
       </c>
       <c r="Q8" s="126">
-        <f t="shared" si="1"/>
-        <v>51.017000000000017</v>
+        <f>E8-P8-O8-N8</f>
+        <v>51.39700000000002</v>
       </c>
       <c r="R8" s="10">
-        <v>52.600999999999999</v>
-      </c>
-      <c r="S8" s="10">
-        <v>50.715000000000003</v>
-      </c>
-      <c r="T8" s="10">
-        <v>50.706000000000003</v>
-      </c>
-      <c r="U8" s="126">
-        <f t="shared" si="2"/>
-        <v>51.39700000000002</v>
-      </c>
-      <c r="V8" s="10">
         <v>48.805999999999997</v>
       </c>
-      <c r="W8" s="15">
+      <c r="S8" s="156">
         <v>51.158999999999999</v>
       </c>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T8" s="15">
+        <v>50.494</v>
+      </c>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="10">
         <v>229.34299999999999</v>
@@ -14564,48 +14380,46 @@
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="J9" s="10">
+        <v>68.918000000000006</v>
+      </c>
+      <c r="K9" s="10">
+        <v>77.138999999999996</v>
+      </c>
+      <c r="L9" s="10">
+        <v>76.986999999999995</v>
+      </c>
+      <c r="M9" s="126">
+        <f>D9-L9-K9-J9</f>
+        <v>76.194000000000017</v>
+      </c>
       <c r="N9" s="10">
-        <v>68.918000000000006</v>
+        <v>72.549000000000007</v>
       </c>
       <c r="O9" s="10">
-        <v>77.138999999999996</v>
+        <v>72.495999999999995</v>
       </c>
       <c r="P9" s="10">
-        <v>76.986999999999995</v>
+        <v>70.668999999999997</v>
       </c>
       <c r="Q9" s="126">
-        <f t="shared" si="1"/>
-        <v>76.194000000000017</v>
+        <f>E9-P9-O9-N9</f>
+        <v>72.727000000000004</v>
       </c>
       <c r="R9" s="10">
-        <v>72.549000000000007</v>
-      </c>
-      <c r="S9" s="10">
-        <v>72.495999999999995</v>
-      </c>
-      <c r="T9" s="10">
-        <v>70.668999999999997</v>
-      </c>
-      <c r="U9" s="126">
-        <f t="shared" si="2"/>
-        <v>72.727000000000004</v>
-      </c>
-      <c r="V9" s="10">
         <v>71.415000000000006</v>
       </c>
-      <c r="W9" s="15">
+      <c r="S9" s="156">
         <v>75.603999999999999</v>
       </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T9" s="15">
+        <v>84.548000000000002</v>
+      </c>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="10">
         <v>64.474000000000004</v>
@@ -14618,48 +14432,46 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="J10" s="10">
+        <v>17.231000000000002</v>
+      </c>
+      <c r="K10" s="10">
+        <v>18.038</v>
+      </c>
+      <c r="L10" s="10">
+        <v>16.954000000000001</v>
+      </c>
+      <c r="M10" s="126">
+        <f>D10-L10-K10-J10</f>
+        <v>17.230999999999987</v>
+      </c>
       <c r="N10" s="10">
-        <v>17.231000000000002</v>
+        <v>18.518999999999998</v>
       </c>
       <c r="O10" s="10">
-        <v>18.038</v>
+        <v>17.343</v>
       </c>
       <c r="P10" s="10">
-        <v>16.954000000000001</v>
+        <v>18.062000000000001</v>
       </c>
       <c r="Q10" s="126">
-        <f t="shared" si="1"/>
-        <v>17.230999999999987</v>
+        <f>E10-P10-O10-N10</f>
+        <v>19.945</v>
       </c>
       <c r="R10" s="10">
-        <v>18.518999999999998</v>
-      </c>
-      <c r="S10" s="10">
-        <v>17.343</v>
-      </c>
-      <c r="T10" s="10">
-        <v>18.062000000000001</v>
-      </c>
-      <c r="U10" s="126">
-        <f t="shared" si="2"/>
-        <v>19.945</v>
-      </c>
-      <c r="V10" s="10">
         <v>19.986000000000001</v>
       </c>
-      <c r="W10" s="15">
+      <c r="S10" s="156">
         <v>23.614000000000001</v>
       </c>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T10" s="15">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="U10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10">
         <v>45.921999999999997</v>
@@ -14672,48 +14484,46 @@
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="J11" s="10">
+        <v>12.766</v>
+      </c>
+      <c r="K11" s="10">
+        <v>13.315</v>
+      </c>
+      <c r="L11" s="10">
+        <v>13.367000000000001</v>
+      </c>
+      <c r="M11" s="126">
+        <f>D11-L11-K11-J11</f>
+        <v>12.429999999999998</v>
+      </c>
       <c r="N11" s="10">
-        <v>12.766</v>
+        <v>11.824999999999999</v>
       </c>
       <c r="O11" s="10">
-        <v>13.315</v>
+        <v>12.596</v>
       </c>
       <c r="P11" s="10">
         <v>13.367000000000001</v>
       </c>
       <c r="Q11" s="126">
-        <f t="shared" si="1"/>
-        <v>12.429999999999998</v>
+        <f>E11-P11-O11-N11</f>
+        <v>13.360999999999997</v>
       </c>
       <c r="R11" s="10">
-        <v>11.824999999999999</v>
-      </c>
-      <c r="S11" s="10">
-        <v>12.596</v>
-      </c>
-      <c r="T11" s="10">
-        <v>13.367000000000001</v>
-      </c>
-      <c r="U11" s="126">
-        <f t="shared" si="2"/>
-        <v>13.360999999999997</v>
-      </c>
-      <c r="V11" s="10">
         <v>13.741</v>
       </c>
-      <c r="W11" s="15">
+      <c r="S11" s="156">
         <v>12.964</v>
       </c>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T11" s="15">
+        <v>12.59</v>
+      </c>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C12" s="10">
         <v>1.9530000000000001</v>
@@ -14726,36 +14536,34 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="J12" s="10">
+        <v>0.34399999999999997</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="126">
+        <f>D12-L12-K12-J12</f>
+        <v>0</v>
+      </c>
       <c r="N12" s="10">
-        <v>0.34399999999999997</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="126">
-        <f t="shared" si="1"/>
+        <f>E12-P12-O12-N12</f>
         <v>0</v>
       </c>
-      <c r="R12" s="10">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="126">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R12" s="10"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="15">
+        <v>4.5830000000000002</v>
+      </c>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="10">
         <v>0.72699999999999998</v>
@@ -14771,31 +14579,27 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="M13" s="126">
+        <f>D13-L13-K13-J13</f>
+        <v>0</v>
+      </c>
       <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="10">
+        <v>2.8450000000000002</v>
+      </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="126">
-        <f t="shared" si="1"/>
+        <f>E13-P13-O13-N13</f>
         <v>0</v>
       </c>
       <c r="R13" s="10"/>
-      <c r="S13" s="10">
-        <v>2.8450000000000002</v>
-      </c>
-      <c r="T13" s="10"/>
-      <c r="U13" s="126">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="156"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11">
         <f>C5-SUM(C7:C13)</f>
@@ -14820,73 +14624,57 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11">
-        <f t="shared" ref="J14:Y14" si="3">J5-SUM(J7:J13)</f>
+        <f t="shared" ref="J14:U14" si="1">J5-SUM(J7:J13)</f>
+        <v>-68.064999999999998</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>-77.08899999999997</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>-66.168999999999983</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="1"/>
+        <v>-47.711000000000098</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="1"/>
+        <v>-52.444999999999993</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="1"/>
+        <v>-46.215000000000003</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="1"/>
+        <v>-37.30000000000004</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>-31.725000000000051</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="1"/>
+        <v>-35.873999999999967</v>
+      </c>
+      <c r="S14" s="154">
+        <f t="shared" si="1"/>
+        <v>-26.583999999999975</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="1"/>
+        <v>-12.379000000000076</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="3"/>
-        <v>-68.064999999999998</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="3"/>
-        <v>-77.08899999999997</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="3"/>
-        <v>-66.168999999999983</v>
-      </c>
-      <c r="Q14" s="11">
-        <f t="shared" si="3"/>
-        <v>-47.711000000000098</v>
-      </c>
-      <c r="R14" s="11">
-        <f t="shared" si="3"/>
-        <v>-52.444999999999993</v>
-      </c>
-      <c r="S14" s="11">
-        <f t="shared" si="3"/>
-        <v>-46.215000000000003</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="3"/>
-        <v>-37.30000000000004</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="3"/>
-        <v>-31.725000000000051</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" si="3"/>
-        <v>-35.873999999999967</v>
-      </c>
-      <c r="W14" s="14">
-        <f t="shared" si="3"/>
-        <v>-26.583999999999975</v>
-      </c>
-      <c r="X14" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10">
         <v>7.0330000000000004</v>
@@ -14899,48 +14687,46 @@
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="J15" s="10">
+        <v>1.298</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="L15" s="10">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="M15" s="126">
+        <f>D15-L15-K15-J15</f>
+        <v>2.3010000000000006</v>
+      </c>
       <c r="N15" s="10">
-        <v>1.298</v>
+        <v>2.448</v>
       </c>
       <c r="O15" s="10">
-        <v>1.6659999999999999</v>
+        <v>2.7970000000000002</v>
       </c>
       <c r="P15" s="10">
-        <v>2.0379999999999998</v>
+        <v>2.8940000000000001</v>
       </c>
       <c r="Q15" s="126">
-        <f t="shared" ref="Q15:Q16" si="4">D15-P15-O15-N15</f>
-        <v>2.3010000000000006</v>
+        <f>E15-P15-O15-N15</f>
+        <v>2.7999999999999994</v>
       </c>
       <c r="R15" s="10">
-        <v>2.448</v>
-      </c>
-      <c r="S15" s="10">
-        <v>2.7970000000000002</v>
-      </c>
-      <c r="T15" s="10">
-        <v>2.8940000000000001</v>
-      </c>
-      <c r="U15" s="126">
-        <f t="shared" ref="U15:U16" si="5">E15-T15-S15-R15</f>
-        <v>2.7999999999999994</v>
-      </c>
-      <c r="V15" s="10">
         <v>2.625</v>
       </c>
-      <c r="W15" s="15">
+      <c r="S15" s="156">
         <v>2.56</v>
       </c>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T15" s="15">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C16" s="10">
         <f>-0.279-10+5</f>
@@ -14955,57 +14741,55 @@
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10">
+      <c r="J16" s="10">
         <v>5.2729999999999997</v>
       </c>
-      <c r="O16" s="10">
+      <c r="K16" s="10">
         <f>5.696+1.215</f>
         <v>6.9109999999999996</v>
       </c>
-      <c r="P16" s="10">
+      <c r="L16" s="10">
         <f>1.142-0.805</f>
         <v>0.33699999999999986</v>
       </c>
+      <c r="M16" s="126">
+        <f>D16-L16-K16-J16</f>
+        <v>1.8720000000000017</v>
+      </c>
+      <c r="N16" s="10">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="O16" s="10">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="P16" s="10">
+        <v>2.4359999999999999</v>
+      </c>
       <c r="Q16" s="126">
-        <f t="shared" si="4"/>
-        <v>1.8720000000000017</v>
+        <f>E16-P16-O16-N16</f>
+        <v>0.68200000000000016</v>
       </c>
       <c r="R16" s="10">
-        <v>1.8640000000000001</v>
-      </c>
-      <c r="S16" s="10">
-        <v>2.8380000000000001</v>
-      </c>
-      <c r="T16" s="10">
-        <v>2.4359999999999999</v>
-      </c>
-      <c r="U16" s="126">
-        <f t="shared" si="5"/>
-        <v>0.68200000000000016</v>
-      </c>
-      <c r="V16" s="10">
         <v>0.67100000000000004</v>
       </c>
-      <c r="W16" s="15">
+      <c r="S16" s="156">
         <v>-1.5640000000000001</v>
       </c>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-    </row>
-    <row r="17" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="15">
+        <v>2.851</v>
+      </c>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" ref="C17:D17" si="6">C14-SUM(C15:C16)</f>
+        <f t="shared" ref="C17:D17" si="2">C14-SUM(C15:C16)</f>
         <v>-250.16100000000003</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-280.73</v>
       </c>
       <c r="E17" s="14">
@@ -15013,81 +14797,65 @@
         <v>-186.44400000000019</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" ref="F17:G17" si="7">F14-SUM(F15:F16)</f>
+        <f t="shared" ref="F17:G17" si="3">F14-SUM(F15:F16)</f>
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" ref="J17" si="8">J14-SUM(J15:J16)</f>
+        <f t="shared" ref="J17" si="4">J14-SUM(J15:J16)</f>
+        <v>-74.635999999999996</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" ref="K17" si="5">K14-SUM(K15:K16)</f>
+        <v>-85.665999999999968</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" ref="L17" si="6">L14-SUM(L15:L16)</f>
+        <v>-68.543999999999983</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" ref="M17" si="7">M14-SUM(M15:M16)</f>
+        <v>-51.8840000000001</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" ref="N17" si="8">N14-SUM(N15:N16)</f>
+        <v>-56.756999999999991</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" ref="O17" si="9">O14-SUM(O15:O16)</f>
+        <v>-51.85</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" ref="P17" si="10">P14-SUM(P15:P16)</f>
+        <v>-42.630000000000038</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" ref="Q17" si="11">Q14-SUM(Q15:Q16)</f>
+        <v>-35.20700000000005</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" ref="R17" si="12">R14-SUM(R15:R16)</f>
+        <v>-39.169999999999966</v>
+      </c>
+      <c r="S17" s="154">
+        <f t="shared" ref="S17" si="13">S14-SUM(S15:S16)</f>
+        <v>-27.579999999999973</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" ref="T17" si="14">T14-SUM(T15:T16)</f>
+        <v>-17.175000000000075</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" ref="U17" si="15">U14-SUM(U15:U16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="11">
-        <f t="shared" ref="K17" si="9">K14-SUM(K15:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" ref="L17" si="10">L14-SUM(L15:L16)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" ref="M17" si="11">M14-SUM(M15:M16)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" ref="N17" si="12">N14-SUM(N15:N16)</f>
-        <v>-74.635999999999996</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" ref="O17" si="13">O14-SUM(O15:O16)</f>
-        <v>-85.665999999999968</v>
-      </c>
-      <c r="P17" s="11">
-        <f t="shared" ref="P17" si="14">P14-SUM(P15:P16)</f>
-        <v>-68.543999999999983</v>
-      </c>
-      <c r="Q17" s="11">
-        <f t="shared" ref="Q17" si="15">Q14-SUM(Q15:Q16)</f>
-        <v>-51.8840000000001</v>
-      </c>
-      <c r="R17" s="11">
-        <f t="shared" ref="R17" si="16">R14-SUM(R15:R16)</f>
-        <v>-56.756999999999991</v>
-      </c>
-      <c r="S17" s="11">
-        <f t="shared" ref="S17" si="17">S14-SUM(S15:S16)</f>
-        <v>-51.85</v>
-      </c>
-      <c r="T17" s="11">
-        <f t="shared" ref="T17" si="18">T14-SUM(T15:T16)</f>
-        <v>-42.630000000000038</v>
-      </c>
-      <c r="U17" s="11">
-        <f t="shared" ref="U17" si="19">U14-SUM(U15:U16)</f>
-        <v>-35.20700000000005</v>
-      </c>
-      <c r="V17" s="11">
-        <f t="shared" ref="V17" si="20">V14-SUM(V15:V16)</f>
-        <v>-39.169999999999966</v>
-      </c>
-      <c r="W17" s="11">
-        <f t="shared" ref="W17" si="21">W14-SUM(W15:W16)</f>
-        <v>-27.579999999999973</v>
-      </c>
-      <c r="X17" s="11">
-        <f t="shared" ref="X17" si="22">X14-SUM(X15:X16)</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="11">
-        <f t="shared" ref="Y17" si="23">Y14-SUM(Y15:Y16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="10">
         <v>-0.59799999999999998</v>
@@ -15100,48 +14868,46 @@
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="J18" s="10">
+        <v>-2.5990000000000002</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M18" s="126">
+        <f>D18-L18-K18-J18</f>
+        <v>-0.13099999999999978</v>
+      </c>
       <c r="N18" s="10">
-        <v>-2.5990000000000002</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="O18" s="10">
-        <v>0.34300000000000003</v>
+        <v>0.309</v>
       </c>
       <c r="P18" s="10">
-        <v>0.89600000000000002</v>
+        <v>0.59</v>
       </c>
       <c r="Q18" s="126">
-        <f>D18-P18-O18-N18</f>
-        <v>-0.13099999999999978</v>
+        <f>E18-P18-O18-N18</f>
+        <v>-6.0000000000000053E-2</v>
       </c>
       <c r="R18" s="10">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0.309</v>
-      </c>
-      <c r="T18" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="U18" s="126">
-        <f t="shared" ref="U18:U19" si="24">E18-T18-S18-R18</f>
-        <v>-6.0000000000000053E-2</v>
-      </c>
-      <c r="V18" s="10">
         <v>0.39600000000000002</v>
       </c>
-      <c r="W18" s="15">
+      <c r="S18" s="156">
         <v>0.48599999999999999</v>
       </c>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T18" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C19" s="10">
         <v>6.4000000000000001E-2</v>
@@ -15154,131 +14920,113 @@
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="J19" s="10">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="M19" s="126">
+        <f>D19-L19-K19-J19</f>
+        <v>-1.4770000000000001</v>
+      </c>
       <c r="N19" s="10">
-        <v>0.24399999999999999</v>
+        <v>-0.14699999999999999</v>
       </c>
       <c r="O19" s="10">
-        <v>0.40300000000000002</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="P19" s="10">
-        <v>0.77400000000000002</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="Q19" s="126">
-        <f>D19-P19-O19-N19</f>
-        <v>-1.4770000000000001</v>
+        <f>E19-P19-O19-N19</f>
+        <v>-0.11299999999999996</v>
       </c>
       <c r="R19" s="10">
-        <v>-0.14699999999999999</v>
-      </c>
-      <c r="S19" s="10">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="T19" s="10">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="U19" s="126">
-        <f t="shared" si="24"/>
-        <v>-0.11299999999999996</v>
-      </c>
-      <c r="V19" s="10">
         <v>0.05</v>
       </c>
-      <c r="W19" s="15">
+      <c r="S19" s="156">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-    </row>
-    <row r="20" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="15">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="U19" s="10"/>
+    </row>
+    <row r="20" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:E20" si="25">C17-SUM(C18:C19)</f>
+        <f t="shared" ref="C20:E20" si="16">C17-SUM(C18:C19)</f>
         <v>-249.62700000000004</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>-279.18299999999999</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>-187.4460000000002</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="J20" s="11">
-        <f t="shared" ref="J20" si="26">J17-SUM(J18:J19)</f>
+        <f t="shared" ref="J20" si="17">J17-SUM(J18:J19)</f>
+        <v>-72.280999999999992</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" ref="K20" si="18">K17-SUM(K18:K19)</f>
+        <v>-86.411999999999964</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" ref="L20" si="19">L17-SUM(L18:L19)</f>
+        <v>-70.213999999999984</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" ref="M20" si="20">M17-SUM(M18:M19)</f>
+        <v>-50.276000000000103</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" ref="N20" si="21">N17-SUM(N18:N19)</f>
+        <v>-56.807999999999993</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" ref="O20" si="22">O17-SUM(O18:O19)</f>
+        <v>-52.100999999999999</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" ref="P20:U20" si="23">P17-SUM(P18:P19)</f>
+        <v>-43.503000000000036</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="23"/>
+        <v>-35.034000000000049</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="23"/>
+        <v>-39.615999999999964</v>
+      </c>
+      <c r="S20" s="154">
+        <f t="shared" si="23"/>
+        <v>-28.014999999999972</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" si="23"/>
+        <v>-17.229000000000074</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K20" s="11">
-        <f t="shared" ref="K20" si="27">K17-SUM(K18:K19)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="11">
-        <f t="shared" ref="L20" si="28">L17-SUM(L18:L19)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="11">
-        <f t="shared" ref="M20" si="29">M17-SUM(M18:M19)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" ref="N20" si="30">N17-SUM(N18:N19)</f>
-        <v>-72.280999999999992</v>
-      </c>
-      <c r="O20" s="11">
-        <f t="shared" ref="O20" si="31">O17-SUM(O18:O19)</f>
-        <v>-86.411999999999964</v>
-      </c>
-      <c r="P20" s="11">
-        <f t="shared" ref="P20" si="32">P17-SUM(P18:P19)</f>
-        <v>-70.213999999999984</v>
-      </c>
-      <c r="Q20" s="11">
-        <f t="shared" ref="Q20" si="33">Q17-SUM(Q18:Q19)</f>
-        <v>-50.276000000000103</v>
-      </c>
-      <c r="R20" s="11">
-        <f t="shared" ref="R20" si="34">R17-SUM(R18:R19)</f>
-        <v>-56.807999999999993</v>
-      </c>
-      <c r="S20" s="11">
-        <f t="shared" ref="S20" si="35">S17-SUM(S18:S19)</f>
-        <v>-52.100999999999999</v>
-      </c>
-      <c r="T20" s="11">
-        <f t="shared" ref="T20:Y20" si="36">T17-SUM(T18:T19)</f>
-        <v>-43.503000000000036</v>
-      </c>
-      <c r="U20" s="11">
-        <f t="shared" si="36"/>
-        <v>-35.034000000000049</v>
-      </c>
-      <c r="V20" s="11">
-        <f t="shared" si="36"/>
-        <v>-39.615999999999964</v>
-      </c>
-      <c r="W20" s="14">
-        <f t="shared" si="36"/>
-        <v>-28.014999999999972</v>
-      </c>
-      <c r="X20" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C21" s="10">
         <v>26.832999999999998</v>
@@ -15291,55 +15039,53 @@
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="J21" s="10">
+        <v>73.736000000000004</v>
+      </c>
+      <c r="K21" s="10">
+        <v>82.334999999999994</v>
+      </c>
+      <c r="L21" s="10">
+        <v>75.218000000000004</v>
+      </c>
+      <c r="M21" s="126">
+        <f>D21-L21-K21-J21</f>
+        <v>67.703000000000017</v>
+      </c>
       <c r="N21" s="10">
-        <v>73.736000000000004</v>
+        <v>64.462000000000003</v>
       </c>
       <c r="O21" s="10">
-        <v>82.334999999999994</v>
+        <v>57.612000000000002</v>
       </c>
       <c r="P21" s="10">
-        <v>75.218000000000004</v>
+        <v>57.671999999999997</v>
       </c>
       <c r="Q21" s="126">
-        <f>D21-P21-O21-N21</f>
-        <v>67.703000000000017</v>
+        <f>E21-P21-O21-N21</f>
+        <v>63.135000000000005</v>
       </c>
       <c r="R21" s="10">
-        <v>64.462000000000003</v>
-      </c>
-      <c r="S21" s="10">
-        <v>57.612000000000002</v>
-      </c>
-      <c r="T21" s="10">
-        <v>57.671999999999997</v>
-      </c>
-      <c r="U21" s="126">
-        <f>E21-T21-S21-R21</f>
-        <v>63.135000000000005</v>
-      </c>
-      <c r="V21" s="10">
         <v>52.637999999999998</v>
       </c>
-      <c r="W21" s="15">
+      <c r="S21" s="156">
         <v>52.158999999999999</v>
       </c>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-    </row>
-    <row r="22" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="15">
+        <v>47.177</v>
+      </c>
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" ref="C22:D22" si="37">C20+C21+C11+C16+C18</f>
+        <f t="shared" ref="C22:D22" si="24">C20+C21+C11+C16+C18</f>
         <v>-182.74900000000005</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="24"/>
         <v>84.589000000000027</v>
       </c>
       <c r="E22" s="14">
@@ -15349,65 +15095,52 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="J22" s="11">
-        <f t="shared" ref="J22:U22" si="38">J20+J21+J11+J16+J18</f>
-        <v>0</v>
+        <f t="shared" ref="J22:Q22" si="25">J20+J21+J11+J16+J18</f>
+        <v>16.895000000000014</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>16.492000000000029</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>19.604000000000021</v>
       </c>
       <c r="M22" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>31.597999999999914</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="38"/>
-        <v>16.895000000000014</v>
+        <f t="shared" si="25"/>
+        <v>21.541000000000011</v>
       </c>
       <c r="O22" s="11">
-        <f t="shared" si="38"/>
-        <v>16.492000000000029</v>
+        <f>O20+O21+O11+O16+O18</f>
+        <v>21.254000000000005</v>
       </c>
       <c r="P22" s="11">
-        <f t="shared" si="38"/>
-        <v>19.604000000000021</v>
+        <f t="shared" si="25"/>
+        <v>30.561999999999962</v>
       </c>
       <c r="Q22" s="11">
-        <f t="shared" si="38"/>
-        <v>31.597999999999914</v>
+        <f t="shared" si="25"/>
+        <v>42.083999999999953</v>
       </c>
       <c r="R22" s="11">
-        <f t="shared" si="38"/>
-        <v>21.541000000000011</v>
-      </c>
-      <c r="S22" s="11">
+        <f>R20+R21+R11+R16+R18</f>
+        <v>27.830000000000034</v>
+      </c>
+      <c r="S22" s="154">
         <f>S20+S21+S11+S16+S18</f>
-        <v>21.254000000000005</v>
-      </c>
-      <c r="T22" s="11">
-        <f t="shared" si="38"/>
-        <v>30.561999999999962</v>
-      </c>
-      <c r="U22" s="11">
-        <f t="shared" si="38"/>
-        <v>42.083999999999953</v>
-      </c>
-      <c r="V22" s="11">
-        <f>V20+V21+V11+V16+V18</f>
-        <v>27.830000000000034</v>
-      </c>
-      <c r="W22" s="11">
-        <f>W20+W21+W11+W16+W18</f>
         <v>36.030000000000022</v>
       </c>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T22" s="14">
+        <f>T20+T21+T11+T16+T18</f>
+        <v>45.588999999999928</v>
+      </c>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -15422,46 +15155,44 @@
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="J23" s="10">
+        <v>134.08470299999999</v>
+      </c>
+      <c r="K23" s="10">
+        <v>135.903592</v>
+      </c>
+      <c r="L23" s="10">
+        <v>140.59412800000001</v>
+      </c>
+      <c r="M23" s="10">
+        <v>145</v>
+      </c>
       <c r="N23" s="10">
-        <v>134.08470299999999</v>
+        <v>150.04584</v>
       </c>
       <c r="O23" s="10">
-        <v>135.903592</v>
+        <v>154.59750600000001</v>
       </c>
       <c r="P23" s="10">
-        <v>140.59412800000001</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>145</v>
+        <v>158.055789</v>
+      </c>
+      <c r="Q23" s="126">
+        <v>162</v>
       </c>
       <c r="R23" s="10">
-        <v>150.04584</v>
-      </c>
-      <c r="S23" s="10">
-        <v>154.59750600000001</v>
-      </c>
-      <c r="T23" s="10">
-        <v>158.055789</v>
-      </c>
-      <c r="U23" s="126">
-        <v>162</v>
-      </c>
-      <c r="V23" s="10">
         <v>171.234353</v>
       </c>
-      <c r="W23" s="15">
+      <c r="S23" s="156">
         <v>177.870238</v>
       </c>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-    </row>
-    <row r="24" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="15">
+        <v>187.90512899999999</v>
+      </c>
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <f>C20/C23</f>
@@ -15477,74 +15208,58 @@
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="55"/>
-      <c r="J24" s="2" t="e">
-        <f t="shared" ref="J24:Y24" si="39">J20/J23</f>
+      <c r="J24" s="2">
+        <f t="shared" ref="J24:U24" si="26">J20/J23</f>
+        <v>-0.53906969537009752</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.63583308379369374</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.49940919296430347</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.34673103448275933</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.37860429852637029</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.33701061128372922</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.27523825780275618</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.21625925925925957</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.23135544536440047</v>
+      </c>
+      <c r="S24" s="157">
+        <f t="shared" si="26"/>
+        <v>-0.15750245974259039</v>
+      </c>
+      <c r="T24" s="35">
+        <f t="shared" si="26"/>
+        <v>-9.1689886761952485E-2</v>
+      </c>
+      <c r="U24" s="2" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="2" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="2" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="2" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.53906969537009752</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.63583308379369374</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.49940919296430347</v>
-      </c>
-      <c r="Q24" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.34673103448275933</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.37860429852637029</v>
-      </c>
-      <c r="S24" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.33701061128372922</v>
-      </c>
-      <c r="T24" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.27523825780275618</v>
-      </c>
-      <c r="U24" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.21625925925925957</v>
-      </c>
-      <c r="V24" s="2">
-        <f t="shared" si="39"/>
-        <v>-0.23135544536440047</v>
-      </c>
-      <c r="W24" s="35">
-        <f t="shared" si="39"/>
-        <v>-0.15750245974259039</v>
-      </c>
-      <c r="X24" s="2" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="2" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -15553,7 +15268,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G25" s="45">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="J25" s="49"/>
       <c r="K25" s="49"/>
@@ -15561,39 +15276,35 @@
       <c r="M25" s="49"/>
       <c r="N25" s="49"/>
       <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49">
+      <c r="P25" s="49">
         <v>0.09</v>
       </c>
+      <c r="Q25" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R25" s="49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S25" s="158">
+        <v>0.1</v>
+      </c>
+      <c r="T25" s="125">
+        <v>0.17</v>
+      </c>
       <c r="U25" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="V25" s="49">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W25" s="125">
-        <v>0.1</v>
-      </c>
-      <c r="X25" s="49">
-        <v>0.17</v>
-      </c>
-      <c r="Y25" s="49">
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26:D26" si="40">C22/C23</f>
+        <f t="shared" ref="C26:D26" si="27">C22/C23</f>
         <v>-2.1022017033943161</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="27"/>
         <v>0.60861847477140851</v>
       </c>
       <c r="E26" s="35">
@@ -15602,74 +15313,58 @@
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="45"/>
-      <c r="J26" s="2" t="e">
-        <f t="shared" ref="J26:Y26" si="41">J22/J23</f>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26:U26" si="28">J22/J23</f>
+        <v>0.12600244190420451</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="28"/>
+        <v>0.12135072927285122</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="28"/>
+        <v>0.13943683337898735</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="28"/>
+        <v>0.21791724137930976</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="28"/>
+        <v>0.14356279387685797</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="28"/>
+        <v>0.13747957874559763</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="28"/>
+        <v>0.19336210456676131</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="28"/>
+        <v>0.2597777777777775</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="28"/>
+        <v>0.16252579878057549</v>
+      </c>
+      <c r="S26" s="157">
+        <f t="shared" si="28"/>
+        <v>0.20256339905498985</v>
+      </c>
+      <c r="T26" s="35">
+        <f t="shared" si="28"/>
+        <v>0.24261711344771186</v>
+      </c>
+      <c r="U26" s="2" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="2" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="2" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="2" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.12600244190420451</v>
-      </c>
-      <c r="O26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.12135072927285122</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.13943683337898735</v>
-      </c>
-      <c r="Q26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.21791724137930976</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.14356279387685797</v>
-      </c>
-      <c r="S26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.13747957874559763</v>
-      </c>
-      <c r="T26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.19336210456676131</v>
-      </c>
-      <c r="U26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.2597777777777775</v>
-      </c>
-      <c r="V26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.16252579878057549</v>
-      </c>
-      <c r="W26" s="2">
-        <f t="shared" si="41"/>
-        <v>0.20256339905498985</v>
-      </c>
-      <c r="X26" s="2" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="2" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3">
         <f>1-C7/C5</f>
@@ -15685,74 +15380,58 @@
       </c>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
-      <c r="J27" s="3" t="e">
-        <f t="shared" ref="J27:Y27" si="42">1-J7/J5</f>
+      <c r="J27" s="3">
+        <f t="shared" ref="J27:U27" si="29">1-J7/J5</f>
+        <v>0.66955206386416188</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="29"/>
+        <v>0.63413959111732621</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="29"/>
+        <v>0.62214617870372801</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="29"/>
+        <v>0.62327852004110973</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="29"/>
+        <v>0.65514397025418458</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="29"/>
+        <v>0.63893561172642976</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="29"/>
+        <v>0.61118401557803836</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="29"/>
+        <v>0.5976844807911752</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="29"/>
+        <v>0.60567231093579277</v>
+      </c>
+      <c r="S27" s="39">
+        <f t="shared" si="29"/>
+        <v>0.60023525384152854</v>
+      </c>
+      <c r="T27" s="6">
+        <f t="shared" si="29"/>
+        <v>0.60620958273542169</v>
+      </c>
+      <c r="U27" s="3" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="3">
-        <f t="shared" si="42"/>
-        <v>0.66955206386416188</v>
-      </c>
-      <c r="O27" s="3">
-        <f t="shared" si="42"/>
-        <v>0.63413959111732621</v>
-      </c>
-      <c r="P27" s="3">
-        <f t="shared" si="42"/>
-        <v>0.62214617870372801</v>
-      </c>
-      <c r="Q27" s="3">
-        <f t="shared" si="42"/>
-        <v>0.62327852004110973</v>
-      </c>
-      <c r="R27" s="3">
-        <f t="shared" si="42"/>
-        <v>0.65514397025418458</v>
-      </c>
-      <c r="S27" s="3">
-        <f t="shared" si="42"/>
-        <v>0.63893561172642976</v>
-      </c>
-      <c r="T27" s="3">
-        <f t="shared" si="42"/>
-        <v>0.61118401557803836</v>
-      </c>
-      <c r="U27" s="3">
-        <f t="shared" si="42"/>
-        <v>0.5976844807911752</v>
-      </c>
-      <c r="V27" s="3">
-        <f t="shared" si="42"/>
-        <v>0.60567231093579277</v>
-      </c>
-      <c r="W27" s="6">
-        <f t="shared" si="42"/>
-        <v>0.60023525384152854</v>
-      </c>
-      <c r="X27" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4">
         <f>C20/C5</f>
@@ -15774,74 +15453,58 @@
         <f>G20/G6</f>
         <v>0</v>
       </c>
-      <c r="J28" s="4" t="e">
-        <f t="shared" ref="J28:Y28" si="43">J20/J5</f>
+      <c r="J28" s="4">
+        <f t="shared" ref="J28:U28" si="30">J20/J5</f>
+        <v>-0.57244115690436204</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.62936176721218307</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.4611696398076871</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.28706177914811076</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.36045227852438416</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.30323541907960216</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.23019409050501652</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.16657474324838367</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.20321420693829587</v>
+      </c>
+      <c r="S28" s="159">
+        <f t="shared" si="30"/>
+        <v>-0.12295963377648239</v>
+      </c>
+      <c r="T28" s="7">
+        <f t="shared" si="30"/>
+        <v>-6.4216627220037931E-2</v>
+      </c>
+      <c r="U28" s="4" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="4" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="4" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="4" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="43"/>
-        <v>-0.57244115690436204</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="43"/>
-        <v>-0.62936176721218307</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="43"/>
-        <v>-0.4611696398076871</v>
-      </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="43"/>
-        <v>-0.28706177914811076</v>
-      </c>
-      <c r="R28" s="4">
-        <f t="shared" si="43"/>
-        <v>-0.36045227852438416</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="43"/>
-        <v>-0.30323541907960216</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="43"/>
-        <v>-0.23019409050501652</v>
-      </c>
-      <c r="U28" s="4">
-        <f t="shared" si="43"/>
-        <v>-0.16657474324838367</v>
-      </c>
-      <c r="V28" s="4">
-        <f t="shared" si="43"/>
-        <v>-0.20321420693829587</v>
-      </c>
-      <c r="W28" s="7">
-        <f t="shared" si="43"/>
-        <v>-0.12295963377648239</v>
-      </c>
-      <c r="X28" s="4" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" s="4" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="39">
@@ -15854,68 +15517,52 @@
       </c>
       <c r="F29" s="48">
         <f>F6/E5-1</f>
-        <v>0.28247633188468058</v>
+        <v>0.35310673603001419</v>
       </c>
       <c r="G29" s="48">
         <f>G6/F6-1</f>
-        <v>0.16631177974897549</v>
+        <v>0.22713074520303445</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4" t="e">
-        <f t="shared" ref="N29:W29" si="44">N5/J5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="4" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="4" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="4" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="4">
-        <f t="shared" si="44"/>
+      <c r="N29" s="4">
+        <f t="shared" ref="N29:S29" si="31">N5/J5-1</f>
         <v>0.24815471853517912</v>
       </c>
-      <c r="S29" s="4">
-        <f t="shared" si="44"/>
+      <c r="O29" s="4">
+        <f t="shared" si="31"/>
         <v>0.2513892833992466</v>
       </c>
-      <c r="T29" s="4">
-        <f t="shared" si="44"/>
+      <c r="P29" s="4">
+        <f t="shared" si="31"/>
         <v>0.2412579145101541</v>
       </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="31"/>
+        <v>0.20086787712686993</v>
+      </c>
+      <c r="R29" s="128">
+        <f t="shared" si="31"/>
+        <v>0.23695765282166459</v>
+      </c>
+      <c r="S29" s="160">
+        <f t="shared" si="31"/>
+        <v>0.32605621096864712</v>
+      </c>
+      <c r="T29" s="129">
+        <f>T6/P5-1</f>
+        <v>0.30910553274351282</v>
+      </c>
       <c r="U29" s="4">
-        <f t="shared" si="44"/>
-        <v>0.20086787712686993</v>
-      </c>
-      <c r="V29" s="128">
-        <f t="shared" si="44"/>
-        <v>0.23695765282166459</v>
-      </c>
-      <c r="W29" s="129">
-        <f t="shared" si="44"/>
-        <v>0.32605621096864712</v>
-      </c>
-      <c r="X29" s="4">
-        <f>X6/T5-1</f>
-        <v>0.30910553274351282</v>
-      </c>
-      <c r="Y29" s="4">
-        <f>Y6/U5-1</f>
+        <f>U6/Q5-1</f>
         <v>0.25908139977177647</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4">
         <f>C9/C5</f>
@@ -15931,74 +15578,58 @@
       </c>
       <c r="F30" s="121"/>
       <c r="G30" s="121"/>
-      <c r="J30" s="4" t="e">
-        <f t="shared" ref="J30:Y30" si="45">J9/J5</f>
+      <c r="J30" s="4">
+        <f t="shared" ref="J30:U30" si="32">J9/J5</f>
+        <v>0.5458073304400165</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="32"/>
+        <v>0.56182402167500589</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="32"/>
+        <v>0.50565509812678977</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="32"/>
+        <v>0.43504624871531367</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="32"/>
+        <v>0.46033045265923023</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="32"/>
+        <v>0.42193729374858135</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="32"/>
+        <v>0.3739417093510562</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="32"/>
+        <v>0.34579212628375816</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="32"/>
+        <v>0.36633033593745995</v>
+      </c>
+      <c r="S30" s="159">
+        <f t="shared" si="32"/>
+        <v>0.33183081035292467</v>
+      </c>
+      <c r="T30" s="7">
+        <f t="shared" si="32"/>
+        <v>0.31513073296185173</v>
+      </c>
+      <c r="U30" s="4" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="4" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="4" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="4" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4">
-        <f t="shared" si="45"/>
-        <v>0.5458073304400165</v>
-      </c>
-      <c r="O30" s="4">
-        <f t="shared" si="45"/>
-        <v>0.56182402167500589</v>
-      </c>
-      <c r="P30" s="4">
-        <f t="shared" si="45"/>
-        <v>0.50565509812678977</v>
-      </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="45"/>
-        <v>0.43504624871531367</v>
-      </c>
-      <c r="R30" s="4">
-        <f t="shared" si="45"/>
-        <v>0.46033045265923023</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="45"/>
-        <v>0.42193729374858135</v>
-      </c>
-      <c r="T30" s="4">
-        <f t="shared" si="45"/>
-        <v>0.3739417093510562</v>
-      </c>
-      <c r="U30" s="4">
-        <f t="shared" si="45"/>
-        <v>0.34579212628375816</v>
-      </c>
-      <c r="V30" s="4">
-        <f t="shared" si="45"/>
-        <v>0.36633033593745995</v>
-      </c>
-      <c r="W30" s="7">
-        <f t="shared" si="45"/>
-        <v>0.33183081035292467</v>
-      </c>
-      <c r="X30" s="4" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y30" s="4" t="e">
-        <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4">
         <f>C10/C5</f>
@@ -16014,74 +15645,58 @@
       </c>
       <c r="F31" s="121"/>
       <c r="G31" s="121"/>
-      <c r="J31" s="4" t="e">
-        <f t="shared" ref="J31:Y31" si="46">J10/J5</f>
+      <c r="J31" s="4">
+        <f t="shared" ref="J31:U31" si="33">J10/J5</f>
+        <v>0.13646371210441285</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="33"/>
+        <v>0.13137559085512851</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="33"/>
+        <v>0.11135485904947061</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="33"/>
+        <v>9.8384149822998701E-2</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="33"/>
+        <v>0.11750485399931472</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="33"/>
+        <v>0.10093878952606554</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="33"/>
+        <v>9.5574228506116937E-2</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" si="33"/>
+        <v>9.483168505135034E-2</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" si="33"/>
+        <v>0.10252017214935341</v>
+      </c>
+      <c r="S31" s="159">
+        <f t="shared" si="33"/>
+        <v>0.10364336219874561</v>
+      </c>
+      <c r="T31" s="7">
+        <f t="shared" si="33"/>
+        <v>8.5007174938034627E-2</v>
+      </c>
+      <c r="U31" s="4" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="4">
-        <f t="shared" si="46"/>
-        <v>0.13646371210441285</v>
-      </c>
-      <c r="O31" s="4">
-        <f t="shared" si="46"/>
-        <v>0.13137559085512851</v>
-      </c>
-      <c r="P31" s="4">
-        <f t="shared" si="46"/>
-        <v>0.11135485904947061</v>
-      </c>
-      <c r="Q31" s="4">
-        <f t="shared" si="46"/>
-        <v>9.8384149822998701E-2</v>
-      </c>
-      <c r="R31" s="4">
-        <f t="shared" si="46"/>
-        <v>0.11750485399931472</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="46"/>
-        <v>0.10093878952606554</v>
-      </c>
-      <c r="T31" s="4">
-        <f t="shared" si="46"/>
-        <v>9.5574228506116937E-2</v>
-      </c>
-      <c r="U31" s="4">
-        <f t="shared" si="46"/>
-        <v>9.483168505135034E-2</v>
-      </c>
-      <c r="V31" s="4">
-        <f t="shared" si="46"/>
-        <v>0.10252017214935341</v>
-      </c>
-      <c r="W31" s="7">
-        <f t="shared" si="46"/>
-        <v>0.10364336219874561</v>
-      </c>
-      <c r="X31" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y31" s="4" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C32" s="4">
         <f>C8/C5</f>
@@ -16097,74 +15712,58 @@
       </c>
       <c r="F32" s="121"/>
       <c r="G32" s="121"/>
-      <c r="J32" s="4" t="e">
-        <f t="shared" ref="J32:Y32" si="47">J8/J5</f>
+      <c r="J32" s="4">
+        <f t="shared" ref="J32:U32" si="34">J8/J5</f>
+        <v>0.42250609814046314</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="34"/>
+        <v>0.40542312146306286</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="34"/>
+        <v>0.3519428316212595</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="34"/>
+        <v>0.29129268014160115</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="34"/>
+        <v>0.33375845484194361</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="34"/>
+        <v>0.29516869692754505</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="34"/>
+        <v>0.26830842822672823</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="34"/>
+        <v>0.24437523773297845</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="34"/>
+        <v>0.2503552247533945</v>
+      </c>
+      <c r="S32" s="159">
+        <f t="shared" si="34"/>
+        <v>0.22454013579764659</v>
+      </c>
+      <c r="T32" s="7">
+        <f t="shared" si="34"/>
+        <v>0.18820328369891354</v>
+      </c>
+      <c r="U32" s="4" t="e">
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="4">
-        <f t="shared" si="47"/>
-        <v>0.42250609814046314</v>
-      </c>
-      <c r="O32" s="4">
-        <f t="shared" si="47"/>
-        <v>0.40542312146306286</v>
-      </c>
-      <c r="P32" s="4">
-        <f t="shared" si="47"/>
-        <v>0.3519428316212595</v>
-      </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="47"/>
-        <v>0.29129268014160115</v>
-      </c>
-      <c r="R32" s="4">
-        <f t="shared" si="47"/>
-        <v>0.33375845484194361</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="47"/>
-        <v>0.29516869692754505</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="47"/>
-        <v>0.26830842822672823</v>
-      </c>
-      <c r="U32" s="4">
-        <f t="shared" si="47"/>
-        <v>0.24437523773297845</v>
-      </c>
-      <c r="V32" s="4">
-        <f t="shared" si="47"/>
-        <v>0.2503552247533945</v>
-      </c>
-      <c r="W32" s="7">
-        <f t="shared" si="47"/>
-        <v>0.22454013579764659</v>
-      </c>
-      <c r="X32" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y32" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
@@ -16186,17 +15785,13 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
+      <c r="S33" s="159"/>
+      <c r="T33" s="7"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4">
@@ -16218,17 +15813,13 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
+      <c r="S34" s="159"/>
+      <c r="T34" s="7"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="39">
@@ -16245,67 +15836,51 @@
       </c>
       <c r="G35" s="56">
         <f>G25/F25-1</f>
-        <v>0.2807017543859649</v>
+        <v>0.35087719298245634</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4" t="e">
-        <f>N20/J20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="4" t="e">
-        <f>O20/K20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" s="4" t="e">
-        <f>P20/L20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="4" t="e">
-        <f t="shared" ref="Q35:U35" si="48">Q26/M26-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="130">
-        <f t="shared" si="48"/>
+      <c r="N35" s="130">
+        <f t="shared" ref="N35:Q35" si="35">N26/J26-1</f>
         <v>0.13936517187503417</v>
       </c>
-      <c r="S35" s="130">
-        <f t="shared" si="48"/>
+      <c r="O35" s="130">
+        <f t="shared" si="35"/>
         <v>0.13291102220310091</v>
       </c>
-      <c r="T35" s="130">
-        <f t="shared" si="48"/>
+      <c r="P35" s="130">
+        <f t="shared" si="35"/>
         <v>0.38673620076558857</v>
       </c>
-      <c r="U35" s="130">
-        <f t="shared" si="48"/>
+      <c r="Q35" s="130">
+        <f t="shared" si="35"/>
         <v>0.19209373307734157</v>
       </c>
-      <c r="V35" s="128">
-        <f>V26/R26-1</f>
+      <c r="R35" s="128">
+        <f>R26/N26-1</f>
         <v>0.13208857526124196</v>
       </c>
-      <c r="W35" s="129">
-        <f>W22/S22-1</f>
+      <c r="S35" s="160">
+        <f>S22/O22-1</f>
         <v>0.69521031335278138</v>
       </c>
-      <c r="X35" s="4">
-        <f>X25/T26-1</f>
+      <c r="T35" s="129">
+        <f>T25/P26-1</f>
         <v>-0.12082049178718557</v>
       </c>
-      <c r="Y35" s="4">
-        <f>Y25/U26-1</f>
+      <c r="U35" s="4">
+        <f>U25/Q26-1</f>
         <v>-0.19161676646706505</v>
       </c>
     </row>
-    <row r="38" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C38" s="11">
-        <f t="shared" ref="C38" si="49">C39-C58</f>
+        <f t="shared" ref="C38" si="36">C39-C58</f>
         <v>0</v>
       </c>
       <c r="D38" s="11">
@@ -16317,81 +15892,65 @@
         <v>-52.414999999999992</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" ref="F38:G38" si="50">F39-F58</f>
+        <f t="shared" ref="F38:G38" si="37">F39-F58</f>
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J38" s="11">
-        <f t="shared" ref="J38:Y38" si="51">J39-J58</f>
+        <f t="shared" ref="J38:U38" si="38">J39-J58</f>
         <v>0</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="38"/>
+        <v>-62.843000000000004</v>
+      </c>
+      <c r="N38" s="11">
+        <f t="shared" si="38"/>
+        <v>-76.046000000000006</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" si="38"/>
+        <v>-66.876000000000005</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="38"/>
+        <v>-63.248000000000005</v>
+      </c>
+      <c r="Q38" s="11">
+        <f t="shared" si="38"/>
+        <v>-52.414999999999992</v>
+      </c>
+      <c r="R38" s="11">
+        <f t="shared" si="38"/>
+        <v>-42.599999999999994</v>
+      </c>
+      <c r="S38" s="154">
+        <f t="shared" si="38"/>
+        <v>-29.646999999999991</v>
+      </c>
+      <c r="T38" s="14">
+        <f t="shared" si="38"/>
+        <v>222.44900000000001</v>
+      </c>
+      <c r="U38" s="11">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="N38" s="11">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="11">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="11">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="11">
-        <f t="shared" si="51"/>
-        <v>-62.843000000000004</v>
-      </c>
-      <c r="R38" s="11">
-        <f t="shared" si="51"/>
-        <v>-76.046000000000006</v>
-      </c>
-      <c r="S38" s="11">
-        <f t="shared" si="51"/>
-        <v>-66.876000000000005</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" si="51"/>
-        <v>-63.248000000000005</v>
-      </c>
-      <c r="U38" s="11">
-        <f t="shared" si="51"/>
-        <v>-52.414999999999992</v>
-      </c>
-      <c r="V38" s="11">
-        <f t="shared" si="51"/>
-        <v>-42.599999999999994</v>
-      </c>
-      <c r="W38" s="14">
-        <f t="shared" si="51"/>
-        <v>-29.646999999999991</v>
-      </c>
-      <c r="X38" s="11">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="11">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -16403,39 +15962,37 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10">
+      <c r="M39" s="10">
         <f>D39</f>
         <v>121.11</v>
       </c>
-      <c r="R39" s="10">
+      <c r="N39" s="10">
         <v>107.794</v>
       </c>
-      <c r="S39" s="10">
+      <c r="O39" s="10">
         <v>117.066</v>
       </c>
-      <c r="T39" s="10">
+      <c r="P39" s="10">
         <v>120.79600000000001</v>
       </c>
-      <c r="U39" s="10">
+      <c r="Q39" s="10">
         <f>E39</f>
         <v>131.732</v>
       </c>
-      <c r="V39" s="10">
+      <c r="R39" s="10">
         <v>141.649</v>
       </c>
-      <c r="W39" s="15">
+      <c r="S39" s="156">
         <v>154.70400000000001</v>
       </c>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T39" s="15">
+        <v>418.53800000000001</v>
+      </c>
+      <c r="U39" s="10"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
@@ -16447,39 +16004,37 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
+      <c r="M40" s="10">
+        <f>D40</f>
+        <v>106.322</v>
+      </c>
+      <c r="N40" s="10">
+        <v>109.405</v>
+      </c>
+      <c r="O40" s="10">
+        <v>122.023</v>
+      </c>
+      <c r="P40" s="10">
+        <v>140.40799999999999</v>
+      </c>
       <c r="Q40" s="10">
-        <f t="shared" ref="Q40:Q42" si="52">D40</f>
-        <v>106.322</v>
+        <f>E40</f>
+        <v>170.131</v>
       </c>
       <c r="R40" s="10">
-        <v>109.405</v>
-      </c>
-      <c r="S40" s="10">
-        <v>122.023</v>
-      </c>
-      <c r="T40" s="10">
-        <v>140.40799999999999</v>
-      </c>
-      <c r="U40" s="10">
-        <f t="shared" ref="U40:U42" si="53">E40</f>
-        <v>170.131</v>
-      </c>
-      <c r="V40" s="10">
         <v>160.59100000000001</v>
       </c>
-      <c r="W40" s="15">
+      <c r="S40" s="156">
         <v>182.80099999999999</v>
       </c>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T40" s="15">
+        <v>203.71100000000001</v>
+      </c>
+      <c r="U40" s="10"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -16491,39 +16046,37 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
+      <c r="M41" s="10">
+        <f>D41</f>
+        <v>7.15</v>
+      </c>
+      <c r="N41" s="10">
+        <v>6.6059999999999999</v>
+      </c>
+      <c r="O41" s="10">
+        <v>5.3929999999999998</v>
+      </c>
+      <c r="P41" s="10">
+        <v>6.4930000000000003</v>
+      </c>
       <c r="Q41" s="10">
-        <f t="shared" si="52"/>
-        <v>7.15</v>
+        <f>E41</f>
+        <v>6.2690000000000001</v>
       </c>
       <c r="R41" s="10">
-        <v>6.6059999999999999</v>
-      </c>
-      <c r="S41" s="10">
-        <v>5.3929999999999998</v>
-      </c>
-      <c r="T41" s="10">
-        <v>6.4930000000000003</v>
-      </c>
-      <c r="U41" s="10">
-        <f t="shared" si="53"/>
-        <v>6.2690000000000001</v>
-      </c>
-      <c r="V41" s="10">
         <v>7.3940000000000001</v>
       </c>
-      <c r="W41" s="15">
+      <c r="S41" s="156">
         <v>8.6029999999999998</v>
       </c>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T41" s="15">
+        <v>9.6989999999999998</v>
+      </c>
+      <c r="U41" s="10"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
@@ -16535,39 +16088,37 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
+      <c r="M42" s="10">
+        <f>D42</f>
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="N42" s="10">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="O42" s="10">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="P42" s="10">
+        <v>1.835</v>
+      </c>
       <c r="Q42" s="10">
-        <f t="shared" si="52"/>
-        <v>1.8660000000000001</v>
+        <f>E42</f>
+        <v>1.6220000000000001</v>
       </c>
       <c r="R42" s="10">
-        <v>2.2320000000000002</v>
-      </c>
-      <c r="S42" s="10">
-        <v>2.0619999999999998</v>
-      </c>
-      <c r="T42" s="10">
-        <v>1.835</v>
-      </c>
-      <c r="U42" s="10">
-        <f t="shared" si="53"/>
-        <v>1.6220000000000001</v>
-      </c>
-      <c r="V42" s="10">
         <v>1.2829999999999999</v>
       </c>
-      <c r="W42" s="15">
+      <c r="S42" s="156">
         <v>1.4610000000000001</v>
       </c>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-    </row>
-    <row r="43" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T42" s="15">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="U42" s="10"/>
+    </row>
+    <row r="43" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C43" s="11">
         <f>SUM(C39:C42)</f>
@@ -16582,73 +16133,57 @@
         <v>309.75400000000002</v>
       </c>
       <c r="J43" s="11">
-        <f t="shared" ref="J43:Y43" si="54">SUM(J39:J42)</f>
+        <f t="shared" ref="J43:U43" si="39">SUM(J39:J42)</f>
         <v>0</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="39"/>
+        <v>236.44800000000004</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="39"/>
+        <v>226.03700000000001</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="39"/>
+        <v>246.54400000000001</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="39"/>
+        <v>269.53199999999998</v>
+      </c>
+      <c r="Q43" s="11">
+        <f t="shared" si="39"/>
+        <v>309.75400000000002</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="39"/>
+        <v>310.91700000000003</v>
+      </c>
+      <c r="S43" s="154">
+        <f t="shared" si="39"/>
+        <v>347.56900000000002</v>
+      </c>
+      <c r="T43" s="14">
+        <f t="shared" si="39"/>
+        <v>633.64499999999998</v>
+      </c>
+      <c r="U43" s="11">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N43" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="11">
-        <f t="shared" si="54"/>
-        <v>236.44800000000004</v>
-      </c>
-      <c r="R43" s="11">
-        <f t="shared" si="54"/>
-        <v>226.03700000000001</v>
-      </c>
-      <c r="S43" s="11">
-        <f t="shared" si="54"/>
-        <v>246.54400000000001</v>
-      </c>
-      <c r="T43" s="11">
-        <f t="shared" si="54"/>
-        <v>269.53199999999998</v>
-      </c>
-      <c r="U43" s="11">
-        <f t="shared" si="54"/>
-        <v>309.75400000000002</v>
-      </c>
-      <c r="V43" s="11">
-        <f t="shared" si="54"/>
-        <v>310.91700000000003</v>
-      </c>
-      <c r="W43" s="14">
-        <f t="shared" si="54"/>
-        <v>347.56900000000002</v>
-      </c>
-      <c r="X43" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -16660,39 +16195,37 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
+      <c r="M44" s="10">
+        <f>D44</f>
+        <v>5.9809999999999999</v>
+      </c>
+      <c r="N44" s="10">
+        <v>5.99</v>
+      </c>
+      <c r="O44" s="10">
+        <v>6.673</v>
+      </c>
+      <c r="P44" s="10">
+        <v>7.4560000000000004</v>
+      </c>
       <c r="Q44" s="10">
-        <f t="shared" ref="Q44:Q50" si="55">D44</f>
-        <v>5.9809999999999999</v>
+        <f>E44</f>
+        <v>7.452</v>
       </c>
       <c r="R44" s="10">
-        <v>5.99</v>
-      </c>
-      <c r="S44" s="10">
-        <v>6.673</v>
-      </c>
-      <c r="T44" s="10">
-        <v>7.4560000000000004</v>
-      </c>
-      <c r="U44" s="10">
-        <f t="shared" ref="U44:U50" si="56">E44</f>
-        <v>7.452</v>
-      </c>
-      <c r="V44" s="10">
         <v>8.1170000000000009</v>
       </c>
-      <c r="W44" s="15">
+      <c r="S44" s="156">
         <v>7.5289999999999999</v>
       </c>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T44" s="15">
+        <v>7.383</v>
+      </c>
+      <c r="U44" s="10"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
@@ -16704,39 +16237,37 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
+      <c r="M45" s="10">
+        <f>D45</f>
+        <v>36.713000000000001</v>
+      </c>
+      <c r="N45" s="10">
+        <v>35.371000000000002</v>
+      </c>
+      <c r="O45" s="10">
+        <v>34.481999999999999</v>
+      </c>
+      <c r="P45" s="10">
+        <v>33.183</v>
+      </c>
       <c r="Q45" s="10">
-        <f t="shared" si="55"/>
-        <v>36.713000000000001</v>
+        <f>E45</f>
+        <v>32.124000000000002</v>
       </c>
       <c r="R45" s="10">
-        <v>35.371000000000002</v>
-      </c>
-      <c r="S45" s="10">
-        <v>34.481999999999999</v>
-      </c>
-      <c r="T45" s="10">
-        <v>33.183</v>
-      </c>
-      <c r="U45" s="10">
-        <f t="shared" si="56"/>
-        <v>32.124000000000002</v>
-      </c>
-      <c r="V45" s="10">
         <v>31.119</v>
       </c>
-      <c r="W45" s="15">
+      <c r="S45" s="156">
         <v>29.936</v>
       </c>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T45" s="15">
+        <v>29.376999999999999</v>
+      </c>
+      <c r="U45" s="10"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10">
@@ -16748,39 +16279,37 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
+      <c r="M46" s="10">
+        <f>D46</f>
+        <v>7.3879999999999999</v>
+      </c>
+      <c r="N46" s="10">
+        <v>6.931</v>
+      </c>
+      <c r="O46" s="10">
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="P46" s="10">
+        <v>5.9429999999999996</v>
+      </c>
       <c r="Q46" s="10">
-        <f t="shared" si="55"/>
-        <v>7.3879999999999999</v>
+        <f>E46</f>
+        <v>6.6029999999999998</v>
       </c>
       <c r="R46" s="10">
-        <v>6.931</v>
-      </c>
-      <c r="S46" s="10">
-        <v>6.4580000000000002</v>
-      </c>
-      <c r="T46" s="10">
-        <v>5.9429999999999996</v>
-      </c>
-      <c r="U46" s="10">
-        <f t="shared" si="56"/>
-        <v>6.6029999999999998</v>
-      </c>
-      <c r="V46" s="10">
         <v>7.2080000000000002</v>
       </c>
-      <c r="W46" s="15">
+      <c r="S46" s="156">
         <v>6.77</v>
       </c>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T46" s="15">
+        <v>7.9850000000000003</v>
+      </c>
+      <c r="U46" s="10"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -16792,39 +16321,37 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="M47" s="10">
+        <f>D47</f>
+        <v>44.357999999999997</v>
+      </c>
+      <c r="N47" s="10">
+        <v>50.826999999999998</v>
+      </c>
+      <c r="O47" s="10">
+        <v>52.029000000000003</v>
+      </c>
+      <c r="P47" s="10">
+        <v>50.098999999999997</v>
+      </c>
       <c r="Q47" s="10">
-        <f t="shared" si="55"/>
-        <v>44.357999999999997</v>
+        <f>E47</f>
+        <v>48.780999999999999</v>
       </c>
       <c r="R47" s="10">
-        <v>50.826999999999998</v>
-      </c>
-      <c r="S47" s="10">
-        <v>52.029000000000003</v>
-      </c>
-      <c r="T47" s="10">
-        <v>50.098999999999997</v>
-      </c>
-      <c r="U47" s="10">
-        <f t="shared" si="56"/>
-        <v>48.780999999999999</v>
-      </c>
-      <c r="V47" s="10">
         <v>46.497</v>
       </c>
-      <c r="W47" s="15">
+      <c r="S47" s="156">
         <v>44.838000000000001</v>
       </c>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-    </row>
-    <row r="48" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T47" s="15">
+        <v>43.031999999999996</v>
+      </c>
+      <c r="U47" s="10"/>
+    </row>
+    <row r="48" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -16836,39 +16363,37 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
+      <c r="M48" s="10">
+        <f>D48</f>
+        <v>133.06899999999999</v>
+      </c>
+      <c r="N48" s="10">
+        <v>141.018</v>
+      </c>
+      <c r="O48" s="10">
+        <v>140.90299999999999</v>
+      </c>
+      <c r="P48" s="10">
+        <v>140.89400000000001</v>
+      </c>
       <c r="Q48" s="10">
-        <f t="shared" si="55"/>
-        <v>133.06899999999999</v>
+        <f>E48</f>
+        <v>140.905</v>
       </c>
       <c r="R48" s="10">
-        <v>141.018</v>
-      </c>
-      <c r="S48" s="10">
         <v>140.90299999999999</v>
       </c>
-      <c r="T48" s="10">
-        <v>140.89400000000001</v>
-      </c>
-      <c r="U48" s="10">
-        <f t="shared" si="56"/>
-        <v>140.905</v>
-      </c>
-      <c r="V48" s="10">
+      <c r="S48" s="156">
         <v>140.90299999999999</v>
       </c>
-      <c r="W48" s="15">
-        <v>140.90299999999999</v>
-      </c>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-    </row>
-    <row r="49" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T48" s="15">
+        <v>140.91900000000001</v>
+      </c>
+      <c r="U48" s="10"/>
+    </row>
+    <row r="49" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
@@ -16880,39 +16405,37 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
+      <c r="M49" s="10">
+        <f>D49</f>
+        <v>0.745</v>
+      </c>
+      <c r="N49" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="P49" s="10">
+        <v>0.83499999999999996</v>
+      </c>
       <c r="Q49" s="10">
-        <f t="shared" si="55"/>
-        <v>0.745</v>
+        <f>E49</f>
+        <v>0.72799999999999998</v>
       </c>
       <c r="R49" s="10">
-        <v>0.76</v>
-      </c>
-      <c r="S49" s="10">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="T49" s="10">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="U49" s="10">
-        <f t="shared" si="56"/>
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="V49" s="10">
         <v>0.748</v>
       </c>
-      <c r="W49" s="15">
+      <c r="S49" s="156">
         <v>0.79400000000000004</v>
       </c>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-    </row>
-    <row r="50" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T49" s="15">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="U49" s="10"/>
+    </row>
+    <row r="50" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
@@ -16924,39 +16447,37 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
+      <c r="M50" s="10">
+        <f>D50</f>
+        <v>1.8</v>
+      </c>
+      <c r="N50" s="10">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="O50" s="10">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="P50" s="10">
+        <v>3.403</v>
+      </c>
       <c r="Q50" s="10">
-        <f t="shared" si="55"/>
-        <v>1.8</v>
+        <f>E50</f>
+        <v>4.367</v>
       </c>
       <c r="R50" s="10">
-        <v>2.9169999999999998</v>
-      </c>
-      <c r="S50" s="10">
-        <v>3.3460000000000001</v>
-      </c>
-      <c r="T50" s="10">
-        <v>3.403</v>
-      </c>
-      <c r="U50" s="10">
-        <f t="shared" si="56"/>
-        <v>4.367</v>
-      </c>
-      <c r="V50" s="10">
         <v>4.7830000000000004</v>
       </c>
-      <c r="W50" s="15">
+      <c r="S50" s="156">
         <v>5.5250000000000004</v>
       </c>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T50" s="15">
+        <v>5.8979999999999997</v>
+      </c>
+      <c r="U50" s="10"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C51" s="11">
         <f>SUM(C43:C50)</f>
@@ -16971,73 +16492,57 @@
         <v>550.71399999999994</v>
       </c>
       <c r="J51" s="11">
-        <f t="shared" ref="J51:T51" si="57">SUM(J43:J50)</f>
+        <f t="shared" ref="J51:P51" si="40">SUM(J43:J50)</f>
         <v>0</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
+        <v>466.50200000000001</v>
+      </c>
+      <c r="N51" s="11">
+        <f t="shared" si="40"/>
+        <v>469.85099999999994</v>
+      </c>
+      <c r="O51" s="11">
+        <f t="shared" si="40"/>
+        <v>491.20600000000007</v>
+      </c>
+      <c r="P51" s="11">
+        <f t="shared" si="40"/>
+        <v>511.34499999999997</v>
+      </c>
+      <c r="Q51" s="11">
+        <f t="shared" ref="Q51:U51" si="41">SUM(Q43:Q50)</f>
+        <v>550.71399999999994</v>
+      </c>
+      <c r="R51" s="11">
+        <f t="shared" si="41"/>
+        <v>550.29200000000014</v>
+      </c>
+      <c r="S51" s="154">
+        <f t="shared" si="41"/>
+        <v>583.86399999999992</v>
+      </c>
+      <c r="T51" s="14">
+        <f t="shared" si="41"/>
+        <v>869.08100000000002</v>
+      </c>
+      <c r="U51" s="11">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="N51" s="11">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="11">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="11">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="11">
-        <f t="shared" si="57"/>
-        <v>466.50200000000001</v>
-      </c>
-      <c r="R51" s="11">
-        <f t="shared" si="57"/>
-        <v>469.85099999999994</v>
-      </c>
-      <c r="S51" s="11">
-        <f t="shared" si="57"/>
-        <v>491.20600000000007</v>
-      </c>
-      <c r="T51" s="11">
-        <f t="shared" si="57"/>
-        <v>511.34499999999997</v>
-      </c>
-      <c r="U51" s="11">
-        <f t="shared" ref="U51:Y51" si="58">SUM(U43:U50)</f>
-        <v>550.71399999999994</v>
-      </c>
-      <c r="V51" s="11">
-        <f t="shared" si="58"/>
-        <v>550.29200000000014</v>
-      </c>
-      <c r="W51" s="14">
-        <f t="shared" si="58"/>
-        <v>583.86399999999992</v>
-      </c>
-      <c r="X51" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
@@ -17049,39 +16554,37 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
+      <c r="M52" s="10">
+        <f>D52</f>
+        <v>33.667999999999999</v>
+      </c>
+      <c r="N52" s="10">
+        <v>38.484999999999999</v>
+      </c>
+      <c r="O52" s="10">
+        <v>55.924999999999997</v>
+      </c>
+      <c r="P52" s="10">
+        <v>59.173000000000002</v>
+      </c>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52:Q56" si="59">D52</f>
-        <v>33.667999999999999</v>
+        <f>E52</f>
+        <v>63.572000000000003</v>
       </c>
       <c r="R52" s="10">
-        <v>38.484999999999999</v>
-      </c>
-      <c r="S52" s="10">
-        <v>55.924999999999997</v>
-      </c>
-      <c r="T52" s="10">
-        <v>59.173000000000002</v>
-      </c>
-      <c r="U52" s="10">
-        <f t="shared" ref="U52:U56" si="60">E52</f>
-        <v>63.572000000000003</v>
-      </c>
-      <c r="V52" s="10">
         <v>53.36</v>
       </c>
-      <c r="W52" s="15">
+      <c r="S52" s="156">
         <v>46.533000000000001</v>
       </c>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-    </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T52" s="15">
+        <v>58.485999999999997</v>
+      </c>
+      <c r="U52" s="10"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10">
@@ -17093,39 +16596,37 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
+      <c r="M53" s="10">
+        <f>D53</f>
+        <v>72.364000000000004</v>
+      </c>
+      <c r="N53" s="10">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="O53" s="10">
+        <v>64.462999999999994</v>
+      </c>
+      <c r="P53" s="10">
+        <v>73.135000000000005</v>
+      </c>
       <c r="Q53" s="10">
-        <f t="shared" si="59"/>
-        <v>72.364000000000004</v>
+        <f>E53</f>
+        <v>85.454999999999998</v>
       </c>
       <c r="R53" s="10">
-        <v>65.569999999999993</v>
-      </c>
-      <c r="S53" s="10">
-        <v>64.462999999999994</v>
-      </c>
-      <c r="T53" s="10">
-        <v>73.135000000000005</v>
-      </c>
-      <c r="U53" s="10">
-        <f t="shared" si="60"/>
-        <v>85.454999999999998</v>
-      </c>
-      <c r="V53" s="10">
         <v>83.533000000000001</v>
       </c>
-      <c r="W53" s="15">
+      <c r="S53" s="156">
         <v>108.16800000000001</v>
       </c>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-    </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T53" s="15">
+        <v>107.658</v>
+      </c>
+      <c r="U53" s="10"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -17137,39 +16638,37 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
+      <c r="M54" s="10">
+        <f>D54</f>
+        <v>14.743</v>
+      </c>
+      <c r="N54" s="10">
+        <v>15.91</v>
+      </c>
+      <c r="O54" s="10">
+        <v>19.164999999999999</v>
+      </c>
+      <c r="P54" s="10">
+        <v>21.812000000000001</v>
+      </c>
       <c r="Q54" s="10">
-        <f t="shared" si="59"/>
-        <v>14.743</v>
+        <f>E54</f>
+        <v>17.234000000000002</v>
       </c>
       <c r="R54" s="10">
-        <v>15.91</v>
-      </c>
-      <c r="S54" s="10">
-        <v>19.164999999999999</v>
-      </c>
-      <c r="T54" s="10">
-        <v>21.812000000000001</v>
-      </c>
-      <c r="U54" s="10">
-        <f t="shared" si="60"/>
-        <v>17.234000000000002</v>
-      </c>
-      <c r="V54" s="10">
         <v>15.515000000000001</v>
       </c>
-      <c r="W54" s="15">
+      <c r="S54" s="156">
         <v>11.414</v>
       </c>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-    </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T54" s="15">
+        <v>12.983000000000001</v>
+      </c>
+      <c r="U54" s="10"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10">
@@ -17181,39 +16680,37 @@
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
+      <c r="M55" s="10">
+        <f>D55</f>
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="N55" s="10">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="O55" s="10">
+        <v>3.3809999999999998</v>
+      </c>
+      <c r="P55" s="10">
+        <v>2.3319999999999999</v>
+      </c>
       <c r="Q55" s="10">
-        <f t="shared" si="59"/>
-        <v>2.2280000000000002</v>
+        <f>E55</f>
+        <v>3.3010000000000002</v>
       </c>
       <c r="R55" s="10">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="S55" s="10">
-        <v>3.3809999999999998</v>
-      </c>
-      <c r="T55" s="10">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="U55" s="10">
-        <f t="shared" si="60"/>
-        <v>3.3010000000000002</v>
-      </c>
-      <c r="V55" s="10">
         <v>4.4550000000000001</v>
       </c>
-      <c r="W55" s="15">
+      <c r="S55" s="156">
         <v>3.6829999999999998</v>
       </c>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T55" s="15">
+        <v>3.5859999999999999</v>
+      </c>
+      <c r="U55" s="10"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
@@ -17225,39 +16722,37 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="M56" s="10">
+        <f>D56</f>
+        <v>5.7069999999999999</v>
+      </c>
+      <c r="N56" s="10">
+        <v>6.3719999999999999</v>
+      </c>
+      <c r="O56" s="10">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="P56" s="10">
+        <v>6.0860000000000003</v>
+      </c>
       <c r="Q56" s="10">
-        <f t="shared" si="59"/>
-        <v>5.7069999999999999</v>
+        <f>E56</f>
+        <v>6.8230000000000004</v>
       </c>
       <c r="R56" s="10">
-        <v>6.3719999999999999</v>
-      </c>
-      <c r="S56" s="10">
-        <v>4.3559999999999999</v>
-      </c>
-      <c r="T56" s="10">
-        <v>6.0860000000000003</v>
-      </c>
-      <c r="U56" s="10">
-        <f t="shared" si="60"/>
-        <v>6.8230000000000004</v>
-      </c>
-      <c r="V56" s="10">
         <v>7.5640000000000001</v>
       </c>
-      <c r="W56" s="15">
+      <c r="S56" s="156">
         <v>6.1529999999999996</v>
       </c>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-    </row>
-    <row r="57" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T56" s="15">
+        <v>8.202</v>
+      </c>
+      <c r="U56" s="10"/>
+    </row>
+    <row r="57" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C57" s="11">
         <f>SUM(C52:C56)</f>
@@ -17272,73 +16767,57 @@
         <v>176.38499999999999</v>
       </c>
       <c r="J57" s="11">
-        <f t="shared" ref="J57:T57" si="61">SUM(J52:J56)</f>
+        <f t="shared" ref="J57:P57" si="42">SUM(J52:J56)</f>
         <v>0</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="42"/>
+        <v>128.71</v>
+      </c>
+      <c r="N57" s="11">
+        <f t="shared" si="42"/>
+        <v>130.04499999999999</v>
+      </c>
+      <c r="O57" s="11">
+        <f t="shared" si="42"/>
+        <v>147.29</v>
+      </c>
+      <c r="P57" s="11">
+        <f t="shared" si="42"/>
+        <v>162.53800000000001</v>
+      </c>
+      <c r="Q57" s="11">
+        <f t="shared" ref="Q57:U57" si="43">SUM(Q52:Q56)</f>
+        <v>176.38499999999999</v>
+      </c>
+      <c r="R57" s="11">
+        <f t="shared" si="43"/>
+        <v>164.42700000000002</v>
+      </c>
+      <c r="S57" s="154">
+        <f t="shared" si="43"/>
+        <v>175.95099999999999</v>
+      </c>
+      <c r="T57" s="14">
+        <f t="shared" si="43"/>
+        <v>190.91500000000002</v>
+      </c>
+      <c r="U57" s="11">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="N57" s="11">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="11">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="11">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="11">
-        <f t="shared" si="61"/>
-        <v>128.71</v>
-      </c>
-      <c r="R57" s="11">
-        <f t="shared" si="61"/>
-        <v>130.04499999999999</v>
-      </c>
-      <c r="S57" s="11">
-        <f t="shared" si="61"/>
-        <v>147.29</v>
-      </c>
-      <c r="T57" s="11">
-        <f t="shared" si="61"/>
-        <v>162.53800000000001</v>
-      </c>
-      <c r="U57" s="11">
-        <f t="shared" ref="U57:Y57" si="62">SUM(U52:U56)</f>
-        <v>176.38499999999999</v>
-      </c>
-      <c r="V57" s="11">
-        <f t="shared" si="62"/>
-        <v>164.42700000000002</v>
-      </c>
-      <c r="W57" s="14">
-        <f t="shared" si="62"/>
-        <v>175.95099999999999</v>
-      </c>
-      <c r="X57" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10">
@@ -17350,39 +16829,37 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
+      <c r="M58" s="10">
+        <f>D58</f>
+        <v>183.953</v>
+      </c>
+      <c r="N58" s="10">
+        <v>183.84</v>
+      </c>
+      <c r="O58" s="10">
+        <v>183.94200000000001</v>
+      </c>
+      <c r="P58" s="10">
+        <v>184.04400000000001</v>
+      </c>
       <c r="Q58" s="10">
-        <f t="shared" ref="Q58:Q60" si="63">D58</f>
-        <v>183.953</v>
+        <f>E58</f>
+        <v>184.14699999999999</v>
       </c>
       <c r="R58" s="10">
-        <v>183.84</v>
-      </c>
-      <c r="S58" s="10">
-        <v>183.94200000000001</v>
-      </c>
-      <c r="T58" s="10">
-        <v>184.04400000000001</v>
-      </c>
-      <c r="U58" s="10">
-        <f t="shared" ref="U58:U60" si="64">E58</f>
-        <v>184.14699999999999</v>
-      </c>
-      <c r="V58" s="10">
         <v>184.249</v>
       </c>
-      <c r="W58" s="15">
+      <c r="S58" s="156">
         <v>184.351</v>
       </c>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T58" s="15">
+        <v>196.089</v>
+      </c>
+      <c r="U58" s="10"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -17394,39 +16871,35 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
+      <c r="M59" s="10">
+        <f>D59</f>
+        <v>17.931999999999999</v>
+      </c>
+      <c r="N59" s="10">
+        <v>18.576000000000001</v>
+      </c>
+      <c r="O59" s="10">
+        <v>15.583</v>
+      </c>
+      <c r="P59" s="10">
+        <v>8.4809999999999999</v>
+      </c>
       <c r="Q59" s="10">
-        <f t="shared" si="63"/>
-        <v>17.931999999999999</v>
+        <f>E59</f>
+        <v>3.06</v>
       </c>
       <c r="R59" s="10">
-        <v>18.576000000000001</v>
-      </c>
-      <c r="S59" s="10">
-        <v>15.583</v>
-      </c>
-      <c r="T59" s="10">
-        <v>8.4809999999999999</v>
-      </c>
-      <c r="U59" s="10">
-        <f t="shared" si="64"/>
-        <v>3.06</v>
-      </c>
-      <c r="V59" s="10">
         <v>3.11</v>
       </c>
-      <c r="W59" s="15">
+      <c r="S59" s="156">
         <v>0</v>
       </c>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T59" s="15"/>
+      <c r="U59" s="10"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10">
@@ -17438,39 +16911,37 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
+      <c r="M60" s="10">
+        <f>D60</f>
+        <v>7.8769999999999998</v>
+      </c>
+      <c r="N60" s="10">
+        <v>7.4640000000000004</v>
+      </c>
+      <c r="O60" s="10">
+        <v>7.0430000000000001</v>
+      </c>
+      <c r="P60" s="10">
+        <v>6.5039999999999996</v>
+      </c>
       <c r="Q60" s="10">
-        <f t="shared" si="63"/>
-        <v>7.8769999999999998</v>
+        <f>E60</f>
+        <v>6.6020000000000003</v>
       </c>
       <c r="R60" s="10">
-        <v>7.4640000000000004</v>
-      </c>
-      <c r="S60" s="10">
-        <v>7.0430000000000001</v>
-      </c>
-      <c r="T60" s="10">
-        <v>6.5039999999999996</v>
-      </c>
-      <c r="U60" s="10">
-        <f t="shared" si="64"/>
-        <v>6.6020000000000003</v>
-      </c>
-      <c r="V60" s="10">
         <v>6.9050000000000002</v>
       </c>
-      <c r="W60" s="15">
+      <c r="S60" s="156">
         <v>6.516</v>
       </c>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T60" s="15">
+        <v>7.21</v>
+      </c>
+      <c r="U60" s="10"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C61" s="11">
         <f>SUM(C57:C60)</f>
@@ -17485,73 +16956,57 @@
         <v>370.19399999999996</v>
       </c>
       <c r="J61" s="11">
-        <f t="shared" ref="J61:Y61" si="65">SUM(J57:J60)</f>
+        <f t="shared" ref="J61:U61" si="44">SUM(J57:J60)</f>
         <v>0</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="44"/>
+        <v>338.47200000000004</v>
+      </c>
+      <c r="N61" s="11">
+        <f t="shared" si="44"/>
+        <v>339.92500000000001</v>
+      </c>
+      <c r="O61" s="11">
+        <f t="shared" si="44"/>
+        <v>353.858</v>
+      </c>
+      <c r="P61" s="11">
+        <f t="shared" si="44"/>
+        <v>361.56700000000001</v>
+      </c>
+      <c r="Q61" s="11">
+        <f t="shared" si="44"/>
+        <v>370.19399999999996</v>
+      </c>
+      <c r="R61" s="11">
+        <f t="shared" si="44"/>
+        <v>358.69100000000003</v>
+      </c>
+      <c r="S61" s="154">
+        <f t="shared" si="44"/>
+        <v>366.81800000000004</v>
+      </c>
+      <c r="T61" s="14">
+        <f t="shared" si="44"/>
+        <v>394.214</v>
+      </c>
+      <c r="U61" s="11">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="N61" s="11">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="11">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="11">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="11">
-        <f t="shared" si="65"/>
-        <v>338.47200000000004</v>
-      </c>
-      <c r="R61" s="11">
-        <f t="shared" si="65"/>
-        <v>339.92500000000001</v>
-      </c>
-      <c r="S61" s="11">
-        <f t="shared" si="65"/>
-        <v>353.858</v>
-      </c>
-      <c r="T61" s="11">
-        <f t="shared" si="65"/>
-        <v>361.56700000000001</v>
-      </c>
-      <c r="U61" s="11">
-        <f t="shared" si="65"/>
-        <v>370.19399999999996</v>
-      </c>
-      <c r="V61" s="11">
-        <f t="shared" si="65"/>
-        <v>358.69100000000003</v>
-      </c>
-      <c r="W61" s="14">
-        <f t="shared" si="65"/>
-        <v>366.81800000000004</v>
-      </c>
-      <c r="X61" s="11">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="11">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C62" s="10">
         <f>C51-C61</f>
@@ -17566,86 +17021,73 @@
         <v>180.51999999999998</v>
       </c>
       <c r="J62" s="10">
-        <f t="shared" ref="J62:Y62" si="66">J51-J61</f>
+        <f t="shared" ref="J62:U62" si="45">J51-J61</f>
         <v>0</v>
       </c>
       <c r="K62" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L62" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M62" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="45"/>
+        <v>128.02999999999997</v>
+      </c>
+      <c r="N62" s="10">
+        <f t="shared" si="45"/>
+        <v>129.92599999999993</v>
+      </c>
+      <c r="O62" s="10">
+        <f t="shared" si="45"/>
+        <v>137.34800000000007</v>
+      </c>
+      <c r="P62" s="10">
+        <f t="shared" si="45"/>
+        <v>149.77799999999996</v>
+      </c>
+      <c r="Q62" s="10">
+        <f t="shared" si="45"/>
+        <v>180.51999999999998</v>
+      </c>
+      <c r="R62" s="10">
+        <f t="shared" si="45"/>
+        <v>191.60100000000011</v>
+      </c>
+      <c r="S62" s="156">
+        <f t="shared" si="45"/>
+        <v>217.04599999999988</v>
+      </c>
+      <c r="T62" s="15">
+        <f t="shared" si="45"/>
+        <v>474.86700000000002</v>
+      </c>
+      <c r="U62" s="10">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N62" s="10">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="10">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="10">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="10">
-        <f t="shared" si="66"/>
-        <v>128.02999999999997</v>
-      </c>
-      <c r="R62" s="10">
-        <f t="shared" si="66"/>
-        <v>129.92599999999993</v>
-      </c>
-      <c r="S62" s="10">
-        <f t="shared" si="66"/>
-        <v>137.34800000000007</v>
-      </c>
-      <c r="T62" s="10">
-        <f t="shared" si="66"/>
-        <v>149.77799999999996</v>
-      </c>
-      <c r="U62" s="10">
-        <f t="shared" si="66"/>
-        <v>180.51999999999998</v>
-      </c>
-      <c r="V62" s="10">
-        <f t="shared" si="66"/>
-        <v>191.60100000000011</v>
-      </c>
-      <c r="W62" s="15">
-        <f t="shared" si="66"/>
-        <v>217.04599999999988</v>
-      </c>
-      <c r="X62" s="10">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="10">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="51"/>
       <c r="D64" s="51"/>
       <c r="E64" s="52"/>
-      <c r="W64" s="16"/>
-    </row>
-    <row r="82" spans="5:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S64" s="161"/>
+      <c r="T64" s="16"/>
+    </row>
+    <row r="82" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E82" s="41"/>
-      <c r="W82" s="41"/>
-    </row>
-    <row r="83" spans="5:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S82" s="162"/>
+      <c r="T82" s="41"/>
+    </row>
+    <row r="83" spans="5:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E83" s="16"/>
-      <c r="W83" s="16"/>
+      <c r="S83" s="161"/>
+      <c r="T83" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17669,7 +17111,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -17717,26 +17159,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -17746,7 +17188,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -17757,7 +17199,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -26052,19 +25494,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H1" s="142" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I1" s="143"/>
       <c r="J1" s="143"/>
@@ -26090,22 +25532,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="M3" s="68" t="s">
         <v>95</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="68" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -26445,7 +25887,7 @@
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="81" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J15" s="81">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -26478,7 +25920,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="145" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I17" s="146"/>
       <c r="M17" s="84"/>
@@ -26498,7 +25940,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="85" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I19" s="122" t="e">
         <f>AVERAGE(D:D)</f>
@@ -26512,7 +25954,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="85" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I20" s="122" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -26526,7 +25968,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="85" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I21" s="122" t="e">
         <f>MEDIAN(D:D)</f>
@@ -26540,7 +25982,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I22" s="122" t="e">
         <f>MODE(D:D)</f>
@@ -26554,7 +25996,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="85" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I23" s="122" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -26568,7 +26010,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="85" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I24" s="122" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -26582,7 +26024,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="85" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I25" s="123" t="e">
         <f>KURT(D:D)</f>
@@ -26596,7 +26038,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I26" s="123" t="e">
         <f>SKEW(D:D)</f>
@@ -26610,7 +26052,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="85" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I27" s="122" t="e">
         <f>I29-I28</f>
@@ -26624,7 +26066,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="85" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I28" s="122" t="e">
         <f>MIN(D:D)</f>
@@ -26638,7 +26080,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I29" s="122" t="e">
         <f>MAX(D:D)</f>
@@ -26652,7 +26094,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I30" s="123" t="e">
         <f>SUM(D:D)</f>
@@ -26666,7 +26108,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="86" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I31" s="63">
         <f>COUNT(D:D)</f>
@@ -26689,16 +26131,16 @@
       </c>
       <c r="H33" s="89"/>
       <c r="I33" s="90" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J33" s="90" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K33" s="90" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L33" s="91" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M33" s="84"/>
     </row>
@@ -26708,7 +26150,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="92" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I34" s="78" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -26734,7 +26176,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="92" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I35" s="78" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -26760,7 +26202,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="93" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I36" s="81">
         <v>0</v>
@@ -26797,22 +26239,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="90" t="s">
+      <c r="M38" s="91" t="s">
         <v>120</v>
-      </c>
-      <c r="J38" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="L38" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="M38" s="91" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -26913,7 +26355,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="149" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I43" s="150"/>
       <c r="J43" s="150"/>
@@ -27328,7 +26770,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="111" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I60" s="112"/>
     </row>
@@ -27338,7 +26780,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="113" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I61" s="114"/>
     </row>
@@ -27355,7 +26797,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="111" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I63" s="116"/>
     </row>
@@ -27365,7 +26807,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="117" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I64" s="118">
         <f>I63*(1-I60)</f>
@@ -27378,7 +26820,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="113" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I65" s="119">
         <f>I63*(1+I61)</f>
